--- a/PCAstatic/PCAstatic_predicted_variables_matrix_8.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-0.2844669354446751</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.2724393342649159</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.2615146083725661</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.2517638903665334</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.2432219328910306</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.2358928055311116</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.2297550503158443</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.2247664236238433</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.2208682113415221</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.2179891168931877</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.2160487305175388</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2149605927256857</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.2146348677275876</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.2149806447576949</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.2159078870952983</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.2173290503115698</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.2191603928726253</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.2213230036006477</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.223743571543203</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.2263549244448678</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.2290963622118206</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.231913811504239</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.2347598269110118</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.2375805148372525</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.2403531719977745</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.2430485866258217</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.2456435698918872</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.2481200495992403</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.2504646836423484</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.2526445724680104</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.2546785114833918</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.2565638833752923</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.2583015945291191</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.2598948724815687</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.2613182855619807</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.2626106160309341</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.2637784899673254</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.2648305717456653</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.2657760521428335</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.266624360701388</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.2673849518838652</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.2680671203149374</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.2686798494124926</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>0.2258472004874298</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.2349875659290808</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2435131717315507</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.251231890984844</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2580166905610126</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2637946779699655</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2685373436334076</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2722519450228563</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.274973939611723</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2767603793797213</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.2776841831187364</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2778292086157122</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.2772860533330329</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2761485182670128</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2745106746566472</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2724644770247962</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2700978688378877</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2674933291822515</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2647268106173342</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.2618670200773871</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.2589749965737631</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2561039416309901</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2532992609215194</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.25056021278903</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2479661489821516</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.2455402308582018</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.2432991788477715</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2412537729615098</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.2394097390807611</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.2377635594214753</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.2363224196132602</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.2350799253145714</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2340271604833066</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.2331531785785758</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.2324547015141941</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.2319105979737988</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.2315063492578011</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.2312274249363664</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.2310594206820553</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.2309883437003745</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.2310008125971407</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.2310842095257603</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.231226792714581</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.1661434109561496</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1777100506137987</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1887202316176389</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1989885039947221</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2083812189598988</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2168095978240849</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.224223225452971</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2306040445434076</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2359608506822699</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2403242805643978</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2437422811786779</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2462760457330886</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2479964009203596</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.2489806290214954</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.2493097069013057</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.249065942093832</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2483309840333369</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2471841862798211</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.245701293553518</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2439534257318518</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.2420063298156689</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.2399198703126194</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.2377477285267197</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.2355320991270994</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.2333228785011552</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.2311545243513082</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.2290562172694358</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.2270515269125881</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.2251587651701095</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.2234028744796988</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.2217835776148362</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.2203058022595472</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.2189714895929864</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.2177797597027838</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.2167468612838351</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.2158485947009833</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.2150778131632513</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.2144264878110089</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.2138858089956818</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.2134464771024661</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.2130989624478374</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.2128337271410829</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.2126414099055225</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>-0.06004766601187988</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.05319767237267559</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.04731421815462408</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.04241505155857006</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.03848969431341828</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.03550518194661897</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.03341113105663111</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.03214416981422639</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.03163178118837198</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.0317956058710708</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.0325542502904403</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.03382564300619689</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.0355289803122554</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.03758629956096295</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.03992371678094809</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.04247236358106929</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.04516905700292212</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.04795673475482577</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.0507846869937681</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.05360861441751039</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.05639054083071494</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.05909860654233181</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.0617067669555187</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.06419280425308568</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.0665399065049555</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.06873627642808242</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.07077511188068508</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.07265351460800458</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.07437171059585268</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.07591699584719117</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.07730872617268997</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.07855371052876578</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.07966029344248646</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.08063788568186378</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.08147411683005185</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.08220159100157844</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.08283113349033971</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.08337322359985241</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.08383805110447311</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.08423534661716992</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.08457426996561637</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.08486333325215592</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.08511034948064367</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>0.1710074549029877</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.1827156681201828</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1929076220328057</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2015853929229489</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2087868313365938</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2145779715626761</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2190462208156895</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2222944602716095</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2244359623896058</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2255900520811253</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.2258784420045567</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2254221781043598</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2243391371405138</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.2227420227564044</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.2207368103554311</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.2184215937904241</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.2158857888811047</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.2132096503848472</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.2104640605522877</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.2077105490311153</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.205001505783697</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.202380550921096</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.1998830279250802</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.1975048049902088</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1953066385637672</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1933027064353534</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.1915004246856473</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.1899025304005708</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1885074994387298</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1873053559296512</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.1862968160183525</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.1854711657305247</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.1848157575105237</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.184316878676556</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.1839651204339059</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.1837419523646035</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.1836319862149814</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.183620602695365</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.1836937336247648</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.1838381050686565</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.1840413606727367</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.1842921500596388</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.1845801820850335</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>-0.4334360592012615</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.4241798662047748</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.41537860598649</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.4072065680841581</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.3997910457811132</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.3932185043610546</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.3875403327997768</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.3827782046859751</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.3789290220287297</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.3759694320463837</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.3738599175144464</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.3725484683155893</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.3719738463863102</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.3720684594070414</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.3727608609736593</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.3739778969560628</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.3756465194327994</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.3776952910135385</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.3800556034936443</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.3826626355843163</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.3854560748950934</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.3883806294008663</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.3913863533127611</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.3944044863228262</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.3974218979820392</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.4004039387562451</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.4033217233231833</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.4061517761756475</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.4088754232378218</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.4114469119328321</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.4138881966185144</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.4161921762931141</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.4183552350248149</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.4203766482865642</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.4222203526450377</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.4239285226316158</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.4255060522115228</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.426959383086244</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.4282959151708345</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.4295236917634545</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.4306511415798168</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.4316868585407288</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.4326394144866582</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1450,132 @@
       <c r="E8" t="n">
         <v>-0.2353441672527268</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.2234956288913882</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.2120315562651325</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.2011091664147593</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.1908523729198789</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.1813543711144373</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.1726805121743851</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.1648712734176583</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1579452448362245</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.1519020709625898</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.1467252999555123</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1423851021502286</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.1388408286521709</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.1360433875492801</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.1339374214618003</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.1324632757015521</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.1315587513827891</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.1311606424290461</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.1312060595251463</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.131633547629426</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.1323840066559065</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.1334014273465185</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.1346334561884005</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.1360130632254719</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.137518972878692</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.1391107108120866</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.1407521043900049</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.1424117957028223</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.1440629964021755</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.1456656183702487</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.1472199418889141</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.1487112182283354</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.1501277663671893</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.1514611444666454</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.1526871755084433</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.1538211696053774</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.1548627283801556</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.1558125902691986</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.1566730051674724</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.1574474515894229</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.1581403561003145</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.1587568454607986</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.1593025274757135</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1593,132 @@
       <c r="E9" t="n">
         <v>-0.3861908612850664</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.3726122912797457</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.3590937648222807</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.3460761842409058</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.3338943898428178</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.3227917359430475</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.3129334923252748</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.3044190457902147</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.2972929311322353</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.291554739127295</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.28716796037933</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.2840678281292254</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.2821682232246967</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.2813677027668767</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.2815547119485027</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.2826120369950744</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.2844205561174254</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.2868623448776647</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.2898231921118841</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.293194582263835</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.296875199424825</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.3007720073798786</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.304800958442078</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.3089146703643535</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.3130125879920213</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.317039015894772</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.3209473515685828</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.3247000973311662</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.3282679832813923</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.3316213003557808</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.334748832322705</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.33764238075563</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.3402989668662701</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.3427202651035774</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.3448871460951886</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.3468316682580746</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.3485654647625491</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.3501018425148467</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.351455400040539</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.3526415164109072</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.3536759293568029</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.3545743787624414</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.3553523082482858</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1736,132 @@
       <c r="E10" t="n">
         <v>0.3832246430610831</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.3933987800094904</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4020823918225708</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.409326107502702</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4152032523058392</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.4198041675831336</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4232313235071474</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.425595105203342</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.4270102093513135</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.4275925913582173</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.4274569104527476</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4267144261067543</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4254713041658499</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.4238272946793604</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.4218747457648818</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.4196979192178433</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.4173725743504771</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.4149657870740324</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.4125359718154291</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.4101330746896153</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.4077989075464297</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.4055675941115805</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.4034661014205573</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.4014978037335775</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.3997002023933319</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.3980821622138363</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.3966477174471804</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.3953966703435836</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.3943254616700408</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.3934303320647173</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.392702701625213</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.3921319465743616</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.3917062272573287</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.3914128866880071</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.3912491125921931</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.3911920337195398</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.3912285213698721</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.3913458870392402</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.3915320856329385</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.3917758461704884</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.3920667663059548</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.3923953700672415</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.3927531372618828</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1879,132 @@
       <c r="E11" t="n">
         <v>-0.2228699068283712</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.215249626369226</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.2082685845457614</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.2020017780424</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.1964961239172513</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.1917743024562088</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.1878384799347875</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.1846737634118767</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.1822513834692029</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.180531596455563</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.1794663045393218</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.1790013962599079</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.1790788135785189</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.1796383540912562</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.1806192193580445</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.1819613223168893</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.1836063685023543</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.1854987272364027</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.1875861100694245</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.1898200744925309</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.1921563713126644</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.1945551540943623</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.1969810687577068</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.1993774380199389</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.2017447006489172</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.2040602893279129</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.2063053829651698</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.208465111273005</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.2105281555762989</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.2124570486853631</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.2142764519474339</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.2159835555482626</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.2175775748898185</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.2190596717893431</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.2203993478591313</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.22163424110365</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.2227696121433389</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.2238111260641256</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.2247650276957255</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.225637888039046</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.2264364265833144</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.2271673617108001</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.2278372863779719</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +2022,132 @@
       <c r="E12" t="n">
         <v>-0.05024862263555787</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.03601991992064191</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.02445004233643296</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.01544851816755524</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.008875479078536072</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.004554696648175927</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.002284771719321607</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.001848623986159481</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.003021454385317084</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.005577339148772918</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.009294603488348402</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.01396011095751154</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.01937259268571396</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.02534513002529314</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.03170689505327116</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.03830424570628739</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.04500126573578038</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.05167983372950113</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.05823929977870961</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.06459584270430246</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.07068157493305922</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.07644345608690739</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.08184207014529463</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.08688495446889064</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.09150702218865601</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.0957029352561108</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.09947588380102672</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.1028364492756246</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.1058008539937612</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.1083817261405215</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.1106052502009</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.1124990136265866</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.1140920004094049</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.1154139675196584</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.116469247609033</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.117311027789541</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.1179681440593366</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.1184676406138919</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.1188347947314736</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.1190928795120806</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.1192630451713425</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.1193642691158127</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.1194133572857333</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +2165,132 @@
       <c r="E13" t="n">
         <v>-0.01135120727683062</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.01127422176386341</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.01135418139883301</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.01164585038942002</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.01218205967235766</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.01297784941903955</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.01403411868945386</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.01534079423418234</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.01687955926889099</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.01862618429145194</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.02055249909769014</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.02262804244400932</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.02482142309368658</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.02710142346178934</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.02943787482338304</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.03180233106047365</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.03416856613572136</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.03651291882164981</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0.03881450661623914</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.04105532919092073</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.04322028011797467</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.04529708400360492</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.04727617451795656</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-0.0491398389910408</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.05089161479055575</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-0.05252935950426635</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.0540526367347838</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.05546274620645059</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.05676239146612293</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-0.05793626438792836</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.05900723982176179</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.05998127447484296</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-0.06086456076342575</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.06166363190479193</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-0.06236058534720233</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.06298648828268186</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.06354846744786855</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-0.06405305233290229</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.06450646526189448</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.06491457872734475</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-0.06528286881091325</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-0.06561638617758105</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0.06591973983369798</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +2308,132 @@
       <c r="E14" t="n">
         <v>0.1191845400608709</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.1458247905420383</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1676772621673588</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1848705257056027</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1976355192148507</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.2062790832772077</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2111612442325891</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.21267599716991</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.211235230993381</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.207255453478201</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.2011469972304947</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.1933054160392096</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.1841048093049051</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.1738928376130793</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.1629872141883765</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.1516734750794157</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.1402038462047838</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.1287970387518049</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.1176388167166426</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.1068831922709693</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.0966541165615193</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.08704754569050741</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.07813377399864382</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.06983112328453066</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.06233304567346406</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.05564235738033431</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.04974734173945426</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.04462384580218548</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.04023737925963946</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.03651617834896459</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.03345705728855621</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.03100355808527883</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.02909744656206975</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.0276799501820774</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.02670070103822557</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.0260992530386351</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.02581952039737231</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.02580898669301149</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.02601900139565665</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.02640506669900801</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.02692700113002524</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.02754899607886842</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.02823957654210325</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +2451,132 @@
       <c r="E15" t="n">
         <v>0.05795799410678586</v>
       </c>
+      <c r="F15" t="n">
+        <v>0.08483133753127747</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1057821946504761</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1210745061035435</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1310803346268684</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.1362484189496009</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1370775395254652</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.1340942538063987</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.1278345334403633</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1188288527915798</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.1075903125145161</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.09460542076241812</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.08032719228827666</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.06517025955183733</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.04950771913106425</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.03366946155873951</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.01794175406687931</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.002567864697142125</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.01225046620125653</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.02635088417870952</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-0.03960776902851361</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.0519292170669175</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.06325378456154268</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.07369399409545549</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.0830448749622338</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.09132396122374778</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.098564132010004</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.1048117260936509</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.1101237600195348</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0.1145926026556417</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-0.1182416058081982</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-0.1211493778178725</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-0.1233948358293924</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.1250560469884591</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.1261913334525382</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.1268864847854094</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.1272123444340392</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-0.1272345227966915</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.1270130291875731</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>-0.1266020860288822</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>-0.1260500544252946</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-0.1253994837839465</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>-0.124687267500318</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +2594,132 @@
       <c r="E16" t="n">
         <v>0.4484041856617713</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.4875908969347083</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5192124233451019</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5435505568446616</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5610332151143977</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5721940090662646</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5776379075376898</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.5780123872895189</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5739834921883413</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.5662162405491746</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.5553588654709656</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.5420304222684874</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.5268113446678411</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.5102365737284085</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.4927909193547727</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.4749063442028805</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.456960885020146</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.4392789484936432</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.42213273889616</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.405744594278163</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.3902900273296314</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.3759012866406539</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.362671273943578</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.3504435104525884</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.3395192665450628</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.3298893294534344</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.3215234364686437</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.3143725254627908</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.3083728198463264</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.3033914657741806</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.299429245927572</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.2963918015018571</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.2941835172256332</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.2927088110136901</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.2918729765357775</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.2915936521481073</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.2917819173954022</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.2923553497237517</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.2932382029979089</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.2943617124275897</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.2956642696829012</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.2970914221509152</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.2985957308344451</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +2737,132 @@
       <c r="E17" t="n">
         <v>0.6510496157198136</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.6689064443843922</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.6812492610677237</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.6884573050623817</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6909901341576868</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.689358796650675</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.6841020140910119</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.6757667104368308</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.6648923595046536</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.6519986594459806</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.6375760894023949</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.6220789520865533</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.6059205508312442</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.5894701887799954</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.5730517111445451</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.5569433395405574</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.5413785714779823</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.5265479393351675</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.5126014426294863</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.4996514858790718</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.4877761722990499</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.477022821195368</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.4674115942114481</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.4587754760538797</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.4513023164307948</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.4449468643816631</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.4396483657800123</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.4353369431742882</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.431935749351564</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.4293186785329187</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.4274662964709498</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.4262910303594908</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.425705941042707</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.4256275787662644</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.4259754523415897</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.4266808406264948</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.427674199492812</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.4288914719214704</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.430275297615363</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.4317749879060775</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.4333463729353259</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.434951558910921</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.4365586036826851</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +2880,132 @@
       <c r="E18" t="n">
         <v>0.01706886085757699</v>
       </c>
+      <c r="F18" t="n">
+        <v>0.008343844657784774</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-2.79777844280904e-07</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.008160520912544197</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.01626433870138402</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.02438452106235611</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.03255182500448477</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.04076559306619144</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.04900258377605005</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.05722423547907637</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.06538256778537874</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.07342490547880498</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.08129759015598403</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.08894882634492923</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.09633079200543899</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.1034011283352947</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.1101239106127259</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.1164701901662506</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.1224181872008236</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.1279532048650037</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.1330673264093491</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.1377589494145444</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.1420322037686227</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.1459468554042956</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.1494463297975421</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.1525504192535487</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.1552828148363088</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0.1576686228751948</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0.1597342964287606</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-0.1615082773903404</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-0.1630086863848618</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-0.1642642896265287</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.1653035970653018</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-0.1661536798382883</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>-0.1668192887918046</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.1673437149157655</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>-0.1677494502311459</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>-0.1680574127062579</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>-0.1682864106489404</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>-0.1684531519038056</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>-0.1685723141891168</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>-0.1686566293538031</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-0.1687169881114277</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +3023,132 @@
       <c r="E19" t="n">
         <v>0.4204098859229696</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.4288060105541441</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4347090011994848</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4382289238116673</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.4395282908067299</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4388067739899497</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.4362882402584976</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.4322099801927466</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.4268138614249101</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.4203391748037847</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.4130169614969309</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.405065631924189</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3966877080188653</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.3880675380742302</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.3793698483160813</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.3707390077639732</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.3622988935154459</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.354153252936017</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.3463864678940692</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.33906463452746</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.3322368802947979</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.3259368483385576</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.3201842874549373</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.3149330333293567</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.3102541933933639</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.3061343503447005</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.3025502105370519</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.2994734113184216</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.2968711909967914</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.2947096342559517</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.2929572466191147</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.2915738904980648</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.2905186033650108</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.2897515437882363</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.2892588041842996</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.2889811649803001</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.2888837655219465</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.2889343731688656</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.2891036592351828</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.2893653089664268</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.2896960038810221</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.2900753599254564</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.290485819084447</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +3166,132 @@
       <c r="E20" t="n">
         <v>0.3874409369270526</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.4224231939793192</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.449809060828629</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.4699680982233119</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.4833993437317692</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4906924739640657</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4924950563298366</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.4894852413460824</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.4823493014841997</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.4717634463125034</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.4583793911618826</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.4428132077463313</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.4256370340222202</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.4073732638860297</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.3884908742093166</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.3694035777426236</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.3504695168598477</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.3319922364243318</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.3142226955501261</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.2973620986932178</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.2815653469485894</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.266944930914789</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.2535751070123952</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.2412953809289048</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.2303776852552483</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.2207977715533524</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.2125121282824198</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.2054603787868224</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.1995690337250889</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.1947061575058624</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.1908558951300509</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.1879185931606326</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.1857943430108341</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.1843844872549548</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.1836004289309851</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.1833494671170481</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.1835428226143073</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.1840982839161998</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.1849408212189612</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.1860028013078771</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.1872240598514601</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.188551815781548</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.1899404545015632</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +3309,132 @@
       <c r="E21" t="n">
         <v>0.6065526620677768</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.638150552661094</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.6623330342849603</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.6797595768284606</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6911262774413858</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.6971438982272322</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.6985198738176893</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.6959438034858441</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.6900759987952414</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.6815386939466119</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.6709095687331664</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.658717273206232</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.6454386778412314</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.6314976020879436</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.6172647979844349</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.6030589850506241</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.5891487492518537</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.5757551336615057</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.563054762527658</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.5511833544117634</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.5402394942518695</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.5302885486823958</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.5213666236029103</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.5133550773048098</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.5064102151877121</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.5004986775489352</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.4955723983767021</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.4915715708943642</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.4884282230979538</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.4860350660522962</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.4843646106997943</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.4833355411731977</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.4828676083227845</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.4828827460084028</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.4833048621128538</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.4840693268264108</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.4851090972750615</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.4863634217787037</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.4877776263799099</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.4893031967607617</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.4908977163340013</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.4925246811702825</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.4941532267563218</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +3452,132 @@
       <c r="E22" t="n">
         <v>0.4341470344248506</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.4538112386078926</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.4681358850358773</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.4774723440879096</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4822477916710086</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.4829387577847404</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.4800490734985303</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.4740917699885147</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.4655744552550756</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.4549877312733469</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.4427962544449637</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.4294320841429002</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.4152900031191024</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.4007245277903657</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.3860483555926387</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.3715320212672235</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.3574045551105765</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.3438549549571268</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.3310343009060798</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.3190583582365505</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.308010529998529</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.2979450365971894</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.2888902152973786</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.2807031940209234</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.2735631482902906</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.2674339035866806</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.2622664693239435</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.2580021067655691</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.2545747777899409</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.2518733781029629</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.2498824727237147</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.2485231584708182</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.2477176244294055</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.2473905438571503</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.2474691332619912</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.2478910485969933</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.2485916418847375</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.2495119111049383</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.2505987303691776</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.2518048994276273</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.2530890610593814</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.2544155209817952</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.2557539865234359</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +3595,132 @@
       <c r="E23" t="n">
         <v>-0.01262649622985987</v>
       </c>
+      <c r="F23" t="n">
+        <v>0.003775262997074813</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01545604063933445</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.02277884519823012</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.02615685888608854</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.02603335028614864</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.02286490967411609</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.01710778178512934</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.009206921160847703</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.0004125694173414685</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.01135192875433941</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.02324343556262665</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.03575356634180023</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.04858483794379319</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.06147653752640973</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.07420452327267459</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.08658026231565576</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.0984492570059879</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-0.1096889963580425</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-0.1202065557647427</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-0.1299359546323524</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-0.1388353683771237</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.1468842782917871</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-0.1541784158637785</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.1606005767750488</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-0.1661824644409662</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-0.1709662644174879</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>-0.1750017119512597</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.1783443165330869</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-0.1810702643953152</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>-0.1832107370409452</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>-0.1848308877504856</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-0.1859948080001755</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>-0.1867643427410512</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>-0.1871854515068331</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-0.1873233091413202</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-0.1872307604714259</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>-0.1869557449193064</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>-0.1865413791981741</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>-0.1860259101729069</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>-0.185442797455956</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>-0.1848208706966412</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>-0.1841845521387322</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +3738,132 @@
       <c r="E24" t="n">
         <v>4.429124658901272</v>
       </c>
+      <c r="F24" t="n">
+        <v>4.27178899803015</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.076668749112137</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.855147635393781</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.617051390933693</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.370744716788824</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.123237138608635</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.880293385359358</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.64654560862874</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.425605383351799</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.22017390053927</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.032149090839325</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.862728655877353</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.712508166111428</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.581573535096275</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.469587317267312</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.375868408653426</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.299464860536205</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.239219644435309</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.193829330300765</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.161895755104825</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.141970863014114</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.132594988568184</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.132479655751194</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.14015189265558</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.154265577106155</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.173552510289301</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.19684287187949</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.223075540251187</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.251386313740117</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.280858854487744</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.31076358874921</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.340477879511516</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.369483826246233</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.397386053626502</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.42382341521277</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.448551537228692</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.471399499372585</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1.492262222288279</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>1.511091730013839</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.52788858323399</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.542693713993181</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.555580810064344</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +3881,132 @@
       <c r="E25" t="n">
         <v>0.430890380242314</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.40637273931993</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.384821149039251</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3660874297245275</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3500054786085438</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3363962173403114</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3250719125779771</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3158398640764368</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.3085057367882948</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.3028765176648927</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.2987630916408112</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.2959824410293021</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.2943594787286319</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.2937285301090476</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.2939344821059068</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.2948336211455505</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.2962941841421195</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.2981966488954583</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.3004337917336272</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.3029105411322724</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.3055436562939491</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.3082612593077335</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.3110022485902785</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.3136797729834076</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.3163372529994943</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.3188932184935024</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.3213173998282294</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.3235916766802731</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.3257039801892413</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.3276271256584563</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.3293998333816366</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.3310041333895133</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.3324426745972787</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.3337231890162222</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.3348434539710644</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.3358330491588059</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.3366987447213979</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.3374512521461538</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.338103357780235</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.3386677619708824</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.3391567679633434</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.3395820974603408</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.3399547445286931</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +4024,132 @@
       <c r="E26" t="n">
         <v>0.3235592585349568</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.3025311157994223</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2819317339614411</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2621147966200039</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2433535342956141</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.225852524228339</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2097558102276249</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.1951546882796903</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1820950422836872</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.1705842294107295</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1605974791966779</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1520837890263272</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.1449713086769387</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.1391722132862389</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.1345870691852095</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.1311087014759262</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1286255764953247</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1270247165089822</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.1261941680455268</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.1260250490409657</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.1264132032276996</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.127260492823159</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.1284757624517234</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.1299743114163155</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.1317114079835169</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.1336041776358037</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.1355740484497061</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.1375704051406093</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.1395500552507972</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.1414824341962999</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.1433436014941124</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.1451053379128132</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.1467444590132534</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.1482501196788477</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.1496239114113321</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.1508584702587291</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.1519521789619303</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.1529077793488249</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.1537312582583826</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.1544306306717442</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.1550151480003636</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.1554949025333115</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.1558804770973959</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +4167,132 @@
       <c r="E27" t="n">
         <v>0.2475706405107626</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.2213401322693848</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.196344602252893</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1728339484550898</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1509903828693699</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1309390527052735</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1127544417180228</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.09646673629155675</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.08206799777717315</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.06951807708762595</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.05875020491963532</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.04967621290408369</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.04219135396023813</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.03617870012827901</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.03151310455442832</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.02806472188722017</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.02570208845063247</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.02429477024754496</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.02371559301457039</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.02384247403566563</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.02455988007229928</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.02575993947208697</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.02734323922544674</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.02917341226326033</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.03128116559321517</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.03353500631501871</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.0358619930148504</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.03820849725596082</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.04052863856125116</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.04276243120111435</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.04492937042889035</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.04698051879082585</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.0488952606066709</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.05066251325310654</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.05225951619516259</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.05371546510642551</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.05501688276046595</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.0561670271047682</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.05717256235586035</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.05804208448490383</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.05878548893590618</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.05941355731316483</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.05993758241562996</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +4310,132 @@
       <c r="E28" t="n">
         <v>1.004039667079861</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.9739526566005762</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9453478064293441</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9186525301493087</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8941742950611088</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8721169613793472</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8525956129449027</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.8356503555980512</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8212589752942488</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8093484783239626</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.799805517823169</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.7924857321907852</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.7872220335431022</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.7838318917082251</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.7821236638857532</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.7819020234149848</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.7829725438310384</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.7851454968056453</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.788238924660043</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.7920810497672434</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.7965120841689898</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.8013855029900077</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.8065688446683599</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.8118991711724705</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.8173865804134417</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.8228767375809319</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.8282826268505377</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.8335412010702287</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.8386023738650407</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.8434060453204859</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.8479594944247956</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.852229801233604</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.8562025721497466</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.8598744499710391</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.8632396086056191</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.8663014706220503</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.8690850191111581</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.8716051590821252</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.8738795206980023</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.875927586888919</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.8777697518420272</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.8794267584369715</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.8809192302457427</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +4453,132 @@
       <c r="E29" t="n">
         <v>4.662799901411062</v>
       </c>
+      <c r="F29" t="n">
+        <v>4.294489022746578</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.946933125850416</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.622128033164836</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.321505556534736</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.04597193759179</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.795952860029574</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.57144306748039</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.372058392077366</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.197088601429759</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.04554978170638</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.916235218186717</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.807763931911786</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.718626200995543</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.647225548568458</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.591916821416119</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.551040115554905</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.522950426538133</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.506043011626266</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.498774546478888</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.499680239596724</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.507387132900325</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.520623866814226</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.53823147711289</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.559214716192034</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1.582616886417801</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.607588255744309</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.633393385031928</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.659406120961818</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.685084952586531</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1.710036409588149</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.733915296053651</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.756454374803378</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.777459920376584</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.796784469693898</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.814375670337379</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.830208304100734</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.844298005768673</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1.856693471062996</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1.867470260796217</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.876724492025366</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.884567218242478</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.891119487643112</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +4596,132 @@
       <c r="E30" t="n">
         <v>0.8689833479378484</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.8309271443804538</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.7963294428898539</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7652729083902399</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.7377612011055836</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.7137326930789576</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.6930724381918114</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.6756228145712051</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.661193184273869</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.6495685817896087</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.6405174412632002</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6337983904870276</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.6291661496680137</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.6263765788721318</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.6251909221316524</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.6253792994439481</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.6267235006896655</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.6290191379058047</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.6320772142500487</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.6357251692228344</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.639807460135367</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.64418573934918</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.6487386854607792</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.6533404887253207</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.6579817384820755</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.662535793249626</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.6669273651148809</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.6711099406245896</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.675048754142935</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.6787067382062174</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.6821031368412176</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.6852115339370999</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.6880261421375938</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.6905533982622866</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.6927995850006088</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.6947872894937949</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.6965328147396882</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.6980531399400457</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.6993691337400401</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.7005024350230127</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.7014746564099321</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.70230695060426</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.7030196559210344</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +4739,132 @@
       <c r="E31" t="n">
         <v>-0.3083371822053924</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.3473104236742878</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.380780262089494</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.4090795371575456</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.4325819569227408</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.4516849468024094</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.4667989539161256</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.4783382188134696</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.486712996324997</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.4923230785322443</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.4955525051403872</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.4967653502229666</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.4963024827248956</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.4944792052649102</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.4915836811151214</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.4878760628792721</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.4835882388621301</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.4789241150604222</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-0.4740603527048708</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.4691474837957229</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.4643113303760065</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.4596546574819211</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-0.455258994761561</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>-0.4511491565704209</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-0.4473648855959318</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-0.443990056269534</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>-0.4410469987908243</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>-0.4385372211590345</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-0.4364537073362718</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-0.4347666491518196</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>-0.4334510215839276</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>-0.4325045615851489</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-0.4318994802395772</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-0.4316023928618048</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-0.4315719705156957</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-0.4317664475418346</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>-0.4321678947979693</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>-0.4327438167465354</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>-0.4334627498000457</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>-0.4342952868028658</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>-0.4352144489298874</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>-0.4361958207412885</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>-0.4372176245285878</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +4882,132 @@
       <c r="E32" t="n">
         <v>0.71883773186801</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.6882991833357897</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.6604726896292941</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6354512741983882</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6132574569382016</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5938565485512657</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5771668758006849</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.5630691158732365</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5514147199626666</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.5420334547942957</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.53474008439758</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5293402275092254</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.5256354316831353</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.523427508107897</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5225221729121946</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.5227320421834498</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5238790293144967</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.5257961946057343</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.528329098122915</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.5313367074498184</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.5346919120215827</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.5382816950846908</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.5420070129804156</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.5457890940127662</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.5495824765948482</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.5532925273685455</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.5568624880963564</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.5602551930121215</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.5634428135379671</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.5664063300099548</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.5691459522004217</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.5716438677826241</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.5738981811219799</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.5759150058844482</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.5777027221296005</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.5792797909397532</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.5806566266261139</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.5818492122484814</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.5828751878257413</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.5837526916665068</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.5844997759274043</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.5851340563265998</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.5856724248593144</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +5025,132 @@
       <c r="E33" t="n">
         <v>0.863447093933053</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.8411931946460491</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8213959762056552</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8040262377319026</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.7890142972826252</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.7762590333459225</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.7656349448191532</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.7569983724362818</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7501930224002995</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.7450548112184998</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.7414160587139917</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7391090664149775</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.7379691227566563</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.7378369781501661</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.7385608333469756</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.7399978843264672</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.7420154664674037</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.744491840123194</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.7473166588886948</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.7503911607672729</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.7536281210707845</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.75695160418751</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.7602965493403098</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.7635956051313039</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.7668545140225846</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.7699971960914479</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.7729908482148984</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.7758157510729278</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.7784584953540903</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.7809007780054538</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.7831663713544577</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.7852404256156547</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.7871262154454689</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.7888322560131581</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.7903600985646281</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.7917377765849554</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.7929722430916399</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.7940763269083405</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.7950643329130538</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.7959504950473089</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.7967486295220935</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.7974719293913981</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.7981328001280774</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +5168,132 @@
       <c r="E34" t="n">
         <v>-0.7072242994885642</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7317675212820038</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.7538321842031991</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.7734412980747625</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.7906615975860195</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.8055936616240487</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.8183642537812128</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.8291196742811615</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.8380198917573233</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.845233401922635</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.8509327649938527</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.8552907756181712</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.8584772228218064</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.8606562004966011</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.8619839305361483</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-0.8626070609782884</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.862661400751733</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.8622710513335319</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-0.8615478942765215</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-0.860591392559347</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-0.8594886633256277</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-0.8583147799660324</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>-0.8571332626958832</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>-0.8559648090670674</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-0.8548410296675807</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-0.8538469104957067</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>-0.8530099248293284</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>-0.8523455619901688</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-0.8518630244830546</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-0.851541860261712</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>-0.8513879963838719</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>-0.8514167864748784</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>-0.8516206047875866</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>-0.8519873066658019</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>-0.8524781950918852</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>-0.8530965327809934</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>-0.8538339671807094</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>-0.8546755820092224</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>-0.8556052740275581</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>-0.8566074505144586</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>-0.8576673224019754</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>-0.8587710727023197</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>-0.8599059842386065</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +5311,132 @@
       <c r="E35" t="n">
         <v>0.7972335018417428</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.7902413939000352</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.7842778986267844</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.7794031705079693</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.7756318737049208</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.7729426688872406</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.771286500046235</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.770593745712181</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.7707803161920783</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.7717527908298831</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.7734126923505762</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.775659992993037</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.7783959417976364</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.7815252957677794</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.7849580306915093</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.788610600731058</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.7924068096868496</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.7962783511520902</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.8001650695378695</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.8040149890813262</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.8077841533727657</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.8114363135959408</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.8149424995386031</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.8183167146272812</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.8214957209619425</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.8244708501162853</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.8272377965395501</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.8297965736249919</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.8321508294754785</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.8343134706060844</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.8362825503735594</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.8380701703964896</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.8396895562186174</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.8411547889735425</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.842474702805034</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.8436684694614446</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.8447510123411436</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.8457367723701421</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.8466394792874861</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.8474720104605682</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.8482462867036394</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.8489732035973364</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.8496625939401419</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +5454,132 @@
       <c r="E36" t="n">
         <v>0.7386548435470897</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.7274532786336362</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.7184931149085846</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.7117036131539882</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7069671594327291</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.7041318722782155</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.7030223988667418</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.7034490116812973</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7052151648933195</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.7081236722703734</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.7119816641659142</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7166044718235376</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.7218185757237022</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.7274637428002362</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.7333944660163666</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.7394808093903413</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.7456087521238403</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.7516801168662263</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.757612159148228</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.7633368874650408</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.7688001762595087</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.7739607270890121</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.7787889265434454</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.7833253354282161</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.787482680291036</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.7912620078022401</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.794670437314789</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.7977207779599655</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.8004303439117083</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.802834238970777</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.804933964075396</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.8067563488841817</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.8083287324225468</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.8096786127493888</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.8108305870296635</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.8118114601308714</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.8126471123968798</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.8133616618020848</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.8139773838658256</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.8145145818884543</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.8149915220122848</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0.8154244197305136</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0.8158274690208136</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +5597,132 @@
       <c r="E37" t="n">
         <v>0.7088458170266294</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.6962592349450527</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.6860946983515601</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.6782726316345397</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.672665036508131</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.6691085441070899</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.6674155718522667</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.6673837347534994</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.6688036760195741</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.6714654807694789</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.6751638331694111</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.6797020677227781</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.684895253694382</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.6905724396162648</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.6965781734560578</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.7027734036771541</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.7090358570743648</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.7152599807488751</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.7213565276683693</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.7272518577476677</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.7328870191498588</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.7382166674827082</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.7432078737417224</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.7479000320842605</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.7522026789174729</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.7561143346217364</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.7596414324172076</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.7627962964543367</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.7655961078710853</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.7680760859614884</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.7702385293467786</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.7721103430433484</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.7737197825874137</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.7750953022985954</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.7762618261954538</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.7772483768975527</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.7780814204394696</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.7787861443786039</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.7793858748906786</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.7799019082644094</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.7803534402532559</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.7807575446053322</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.781129196663403</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +5740,132 @@
       <c r="E38" t="n">
         <v>0.6850178252622979</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.6717362229288804</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.6603633412265715</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.650819603093876</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.6430023454660896</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.6367919218650665</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.632057033941542</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.628659346157286</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.6264574146047311</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.6253099809962046</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.6250786867136549</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6256302625042902</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.6268382478443395</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.6285842914393376</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.630759081475941</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.6332629514066799</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.6360062043271139</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.6389091963718873</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.6419022169497746</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.6449252009994383</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.647927305742767</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.6508663816354261</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.6537083643831375</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.6564539702656719</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.6590485143231222</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.6614794831192065</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.6637387311574762</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.6658229879920755</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.6677329397571914</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.6694791724129444</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.6710584627275257</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.6724804803262627</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.6737559927746459</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.6748968996064537</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.6759153055749747</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.6768235695308343</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.6776350100339404</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.6783624648771279</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.6790182136791459</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.6796138488635068</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.6801601522362916</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.6806670128080222</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.6811433770415303</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +5883,132 @@
       <c r="E39" t="n">
         <v>0.5738455816932606</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.5710976739164479</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.5690518143167401</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.5677235162391119</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5670989413954354</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5671420299795792</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.567800598802909</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.5690114778124733</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.5707047751922434</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.5728073644911921</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.5752456866354985</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.5779479548595428</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.5808458438355855</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.5838757368049043</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.5869795970542537</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.5901055230320816</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.5932080399172129</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.5962481745588386</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.5991933553527946</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.6020171737351777</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.6046990394937721</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.6072237579689569</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.6095810534042232</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.6118044716730221</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.6138426110520896</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.6156980250351107</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.6173763965621319</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.6188855507903583</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.6202351004822652</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.6214498046110815</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.622523417295094</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.6234692398546622</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.6243009004888652</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.6250318576414841</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.6256795565674605</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.6262510919380934</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.6267586778603311</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.6272137670276734</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.627626852227802</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.6280074213003548</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.628363945901015</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.6287038890868403</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.6290337308372483</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +6026,132 @@
       <c r="E40" t="n">
         <v>0.7455953822987587</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.7421532989141824</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.7391285758615437</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.7366563387810723</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7348195780686636</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.7336591066888988</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.7331822357433605</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.7333702877802624</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7341850334021572</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.7355741490222441</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.7374757967959681</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7398224247931999</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.7425438793997124</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.7455699145045214</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.7488321743232024</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.7522657193274802</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.755810157964478</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.7594104407136145</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.7630173674939255</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.7665878544053162</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.7700850011671435</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.7734779963274714</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.7767418933012634</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.7798949967855036</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.7828738577497479</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.7856707917179608</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.7882818776707938</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.7907067546892247</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.7929481912633715</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.7950184080897141</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.7969132853826871</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.7986430791553841</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.8002193068239205</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.801654234805977</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.8029544442438253</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.8041380782549205</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.8052179434463489</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.8062069114064817</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.8071172617152452</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.8079605511572475</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.8087475222078296</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.8094880378508718</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.8101910431032138</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +6169,132 @@
       <c r="E41" t="n">
         <v>0.5428817591079995</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.5393660553741413</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5371011909792188</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.53594509851959</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5357561388066476</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5363960707977532</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5377324057968506</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.5396402236511555</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5420035047791777</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.5447160378251392</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.5476819607919856</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5508159906668673</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.5540433927858776</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.557299737012905</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.5605304835060841</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.5636904365538676</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.5667431007485901</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.5696599696662369</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.5724197732671922</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.5750077064554507</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.5774146576665853</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.5796364530301213</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.5816731285975248</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.5835397547894293</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.5852264778015333</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.5867426106761469</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.5880992169717968</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.5893087406508285</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.5903843853626524</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.5913401099689481</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.5921872693243246</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.592939761677998</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.5936108929922164</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.5942133309823535</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.5947554739659773</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.5952511563735418</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.5957106457537162</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.5961430011047728</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.5965562041303512</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.5969571909895118</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.5973518870874669</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.5977452598680062</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.5981413821348326</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +6312,132 @@
       <c r="E42" t="n">
         <v>0.6437770831792808</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.6250631988687375</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6093241502088688</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.5964683928958204</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.5863506406672518</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5787857586458653</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.5735607157370949</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.5704447714418965</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.5691980388062223</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.5695785831519293</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.5713482119378828</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.574277102398092</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.5781474026363093</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.5827559306870189</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.5879160857002769</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.593459076204602</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.5992345622713086</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.6051108010799872</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.6109743785633883</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.6167296032326799</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.6222976317778887</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.627615389520553</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.6326343422599117</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.637394023771292</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.6417762175482232</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.6457715277023348</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.6493779085706169</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.6526012490717353</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.6554537863842375</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.6579761228416218</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.660157651083789</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.6620248331609337</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.6636052441166674</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.6649274990124613</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.6660255768962482</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.6669205291476268</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.6676410765480881</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.6682143627615263</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.6686657750185788</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.669018772242432</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.6692947392789238</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.6695129108316149</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.669690351302917</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +6455,132 @@
       <c r="E43" t="n">
         <v>0.6843895028197208</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.6747624943670359</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.6668140283033007</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.6604539948518742</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.6555729350805933</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.6520480190640979</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.6497481696684857</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.6485383957836351</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6482833926775809</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.6488504768418729</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.6501119246593989</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6519467827228852</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.6542422141355446</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.6568944407922496</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.65980933711114</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.6629027262661628</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.6661004257619786</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.6693380851915005</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.6725608551824315</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.675722922831366</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.6787869453179666</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.6817234098834858</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.6845099449606472</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.6871586200449918</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.6896231071826893</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.6918995012344694</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.6939876184299082</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.6958910128228168</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.6976161909865669</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.6991787824590178</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.7005793350476348</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.7018305956361817</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.7029459274672694</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.7039391279715997</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.7048233971428672</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.7056122649640569</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.706319188988063</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.7069569637990174</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.7075375374459556</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.7080719145805686</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.7085700935678038</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0.7090410358443046</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.7094926613705167</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +6598,132 @@
       <c r="E44" t="n">
         <v>0.6613454028661661</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.6568394143539874</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.6536244035155891</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.6516327948271985</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.65077363682613</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.6509399264934674</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.6520147863900297</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.6538765816549366</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.6564030827834917</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.6594747803021238</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.6629774556433252</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6668041067352127</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.6708563192930019</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.6750451666928681</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.6792917132870293</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.6835271884041499</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.6876928911824769</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.6917398798031184</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.6956284925804814</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.6993277426727</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.702814622856013</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.7060733518404861</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.7090945889825558</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.7119100769621579</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.7144750998595968</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.7167961412067194</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.7188833899281477</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.7207495872948394</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.722409444024707</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.7238879607047033</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.7251889082360713</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.7263304993074799</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.7273310622266523</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.7282084816960637</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.7289790169579745</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.7296589208188592</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.7302637247051568</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.7308078215069246</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.7313042708001761</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.7317647553409757</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.7321995876767993</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.732617740774454</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.7330268995743658</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +6741,132 @@
       <c r="E45" t="n">
         <v>0.6279746998844543</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.6170545368823231</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.6088899883636988</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.6033638372944621</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.6003017571049971</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5994890278025012</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.6006846948546566</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6036333406539484</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6080747258521678</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.6137515462749444</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.6204155391967449</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.6278321545044901</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.6357839865308995</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.6440731431048412</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.6525227106544429</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.6609774583039173</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.6693039097082578</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.6773898985650233</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.6851437119886157</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.6924929149417718</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.6993829384931184</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.7057755047032084</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.711646951406011</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.7170788566642018</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.7219531548970448</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.7262837346951664</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.7300920722846643</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.7334055437661315</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.7362562284484627</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.7387072715866607</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.7407576916870486</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.7424486995479408</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.7438214925486754</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.7449163570629248</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.7457762931364746</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.7464313379970321</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.7469170675915793</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.7472663112879856</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.7475089025826175</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.7476715848047767</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.7477780165487422</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.7478488311931547</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.7479017454954086</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +6884,132 @@
       <c r="E46" t="n">
         <v>-1.27066546221736</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.272999368702745</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1.274956917567736</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1.276666870336987</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1.278239310637759</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1.27976650540546</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1.28132410336851</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-1.282972509583709</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-1.284758348444813</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.286715948448618</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-1.288868801883658</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.291230968049921</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-1.293808400452615</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-1.296600187069411</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-1.299599698774681</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-1.30279564484947</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-1.306173036742397</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-1.309714062363936</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-1.313398873615378</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-1.317206289908139</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-1.321114420361571</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>-1.325101207334656</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>-1.329144894031701</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>-1.333112809782225</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>-1.337108899047895</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>-1.341112427022691</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>-1.34510454259127</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>-1.349068085500605</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-1.352987769931154</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-1.356761997060754</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>-1.360473528822124</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>-1.364111588732212</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>-1.367667410540972</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>-1.371134050101978</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>-1.374419170030991</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>-1.37760897702177</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>-1.380700792540796</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>-1.383693222712316</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>-1.3865860891163</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>-1.389380251901684</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>-1.392077448115454</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>-1.394680137504651</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>-1.39719135885814</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +7027,132 @@
       <c r="E47" t="n">
         <v>-0.9879981093765431</v>
       </c>
+      <c r="F47" t="n">
+        <v>-0.9910471830975809</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.9935918647662625</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.9957474981632948</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.9976167810425489</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.9992896702131918</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1.000843678492941</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-1.002344423665867</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-1.003846350304625</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.005393559376646</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-1.007020696900317</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-1.008753866209721</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-1.010611538866889</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-1.01260544715247</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-1.01474144671752</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-1.017020341803504</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-1.019438667870465</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-1.021989427930509</v>
+      </c>
+      <c r="W47" t="n">
+        <v>-1.024662779727058</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-1.027446671418593</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-1.03032742382779</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-1.033290257736569</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>-1.036319765213229</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>-1.039302438716662</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>-1.042332796585383</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>-1.045393421631812</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>-1.048468457921578</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>-1.051543100814459</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-1.054603742345744</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-1.057563093978825</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>-1.060490917925185</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>-1.063376388331602</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>-1.066210431139626</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>-1.068985485254414</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>-1.071622610441432</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>-1.074192252971166</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>-1.076690459689483</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>-1.079114413395237</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>-1.081462439583377</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>-1.083733853870564</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>-1.08592883274267</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>-1.088048288550486</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>-1.090093750001229</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +7170,132 @@
       <c r="E48" t="n">
         <v>-0.8821536991446465</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.8843898973122468</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.8856410422577177</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.8861225872830059</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.8860289521196795</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.8855329300178363</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.8847857402822334</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.8839175676084491</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.8830384635021349</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.882239507949325</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.8815941497227718</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.8811596607585636</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-0.8809786539378537</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.8810806246352051</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-0.8814834849481156</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-0.8821950660649166</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-0.8832145692297499</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-0.8845339496531539</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-0.8861392208542129</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-0.8880116695805114</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-0.8901289738262685</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-0.8924662186729483</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>-0.8949968067656736</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>-0.8975874850848078</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>-0.9003312723066278</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>-0.903197963477768</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>-0.9061591844108637</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>-0.9091880670285198</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>-0.9122595734549805</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>-0.9152725471347538</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>-0.9182910756229727</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>-0.9212951333736737</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>-0.9242674143396993</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>-0.9271930918540328</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>-0.9299849839055534</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>-0.9327102947815413</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>-0.9353604515264321</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>-0.9379289067735875</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>-0.9404110211922512</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>-0.9428038563971316</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>-0.9451059704889424</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>-0.947317217683147</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>-0.9494385548963771</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +7313,132 @@
       <c r="E49" t="n">
         <v>-0.6470117708346044</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.6479345667965196</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.6482391277409046</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.6480814971285432</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.6476010257997975</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.6469201098052405</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.6461444154386941</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.6453634586747429</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.6446514438156827</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.6440682836398758</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.64366073868873</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.6434636263146938</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-0.6435010608498931</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.6437876949001882</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-0.6443299385802689</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-0.645127138792403</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-0.6461727047389136</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-0.647455169050832</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-0.6489591764737221</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-0.6506663941822458</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-0.6525563396457428</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-0.6546071236331502</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-0.6567961074784424</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>-0.6590152065879361</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>-0.6613389097357808</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>-0.6637429577494161</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>-0.6662050822668883</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>-0.6687044232037462</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>-0.6712217986256641</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>-0.6736758125428648</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>-0.676120256165352</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>-0.6785403069205472</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>-0.6809233886689027</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>-0.683258888612559</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>-0.6854764634629914</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>-0.6876328544020744</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>-0.6897223924582846</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>-0.6917409066997898</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>-0.693685664139199</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>-0.6955552037360077</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>-0.6973491708382438</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>-0.6990681565043</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>-0.7007135443936077</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +7456,132 @@
       <c r="E50" t="n">
         <v>-0.05147087925060318</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.05261019295807508</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.05368574398965131</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.0547177771331474</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.05572436942573548</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.05672115901621019</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.05772124243813623</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.05873517819598185</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.05977107703522394</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.06083475599069953</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.06192993637395367</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.06305846884455296</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-0.06422057189229108</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.06541507309939613</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-0.06663964525587641</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-0.06789103166883864</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-0.06916525682014343</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.07045781992147297</v>
+      </c>
+      <c r="W50" t="n">
+        <v>-0.07176386995604379</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-0.0730783615559147</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-0.07439619161404104</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-0.07571231693120503</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-0.07702185349617542</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>-0.07827254131575538</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>-0.07951281609572475</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>-0.08073767998707376</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>-0.08194307880744259</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>-0.08312527488785924</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-0.0842810130348034</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>-0.08536978337666233</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>-0.08642964800232449</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>-0.0874581636611292</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>-0.08845357723738205</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>-0.08941455321848436</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>-0.09030303826057438</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>-0.0911569252896057</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>-0.09197579049610456</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>-0.09275957996972649</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>-0.0935085589097229</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>-0.09422325279374333</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>-0.09490440762059138</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>-0.09555294980791369</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>-0.09616994890139735</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +7599,132 @@
       <c r="E51" t="n">
         <v>-0.8727317778548436</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.8747135351383131</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.8757999033451912</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.8761559390893665</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-0.8759376473466594</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.8752895608445718</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.8743431326846236</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.8732158065707268</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.8720106235985731</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.8708162501511634</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.8697073313097302</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.8687450919430166</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-0.8679781224088201</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-0.8674432977267224</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-0.8671667884687256</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-0.867165128892877</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-0.8674463134835496</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-0.8680108975100436</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-0.8688530808587769</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-0.8699617575344956</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-0.8713215160736075</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-0.8729135787965622</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>-0.8747166704071708</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>-0.8766044142423669</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>-0.8786722658247232</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>-0.8808928322460701</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>-0.8832396152501818</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>-0.8856870832351101</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>-0.888210906348452</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>-0.8907164145320108</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>-0.8932614934359735</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>-0.8958253029602351</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>-0.8983893045958804</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>-0.9009372210593017</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>-0.9033890065283459</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>-0.905801283247806</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>-0.9081635323368008</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>-0.9104672091829472</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>-0.9127056727127207</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>-0.9148740183519465</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>-0.9169688985415945</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>-0.9189883448548469</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>-0.9209315920820805</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +7742,132 @@
       <c r="E52" t="n">
         <v>-0.8727317778548436</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.8747135351383131</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.8757999033451912</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.8761559390893665</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.8759376473466594</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.8752895608445718</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.8743431326846236</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.8732158065707268</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.8720106235985731</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.8708162501511634</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.8697073313097302</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.8687450919430166</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-0.8679781224088201</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.8674432977267224</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-0.8671667884687256</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-0.867165128892877</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-0.8674463134835496</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-0.8680108975100436</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-0.8688530808587769</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.8699617575344956</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-0.8713215160736075</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-0.8729135787965622</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>-0.8747166704071708</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>-0.8766044142423669</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>-0.8786722658247232</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>-0.8808928322460701</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>-0.8832396152501818</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>-0.8856870832351101</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-0.888210906348452</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>-0.8907164145320108</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>-0.8932614934359735</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>-0.8958253029602351</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>-0.8983893045958804</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>-0.9009372210593017</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>-0.9033890065283459</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>-0.905801283247806</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>-0.9081635323368008</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>-0.9104672091829472</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>-0.9127056727127207</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>-0.9148740183519465</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>-0.9169688985415945</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>-0.9189883448548469</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>-0.9209315920820805</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +7885,132 @@
       <c r="E53" t="n">
         <v>-1.1174890017899</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.124236261619521</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1.129358865363537</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-1.133159461302157</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-1.135909944935196</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1.137851773154373</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-1.139196859314344</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-1.140128885329667</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-1.140804906736139</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.141357150972393</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-1.141894932092303</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.142506623572416</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-1.143261645348325</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-1.144212432148431</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-1.145396358182207</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-1.146837598926601</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-1.148548914765614</v>
+      </c>
+      <c r="V53" t="n">
+        <v>-1.150533344128929</v>
+      </c>
+      <c r="W53" t="n">
+        <v>-1.152785795995247</v>
+      </c>
+      <c r="X53" t="n">
+        <v>-1.155294533506951</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>-1.158042542204012</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>-1.161008778148048</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-1.164169293016412</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>-1.167376805828797</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>-1.170741566390607</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>-1.174233616133423</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>-1.177824113663999</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>-1.181485245723832</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>-1.185190721443486</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>-1.188824126660082</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>-1.192462283401118</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>-1.196083492489278</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>-1.199668818939136</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>-1.203201858510555</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>-1.206578997255437</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>-1.209881499328531</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>-1.213099431761237</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>-1.216225191066721</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>-1.219253262851528</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>-1.222180006300721</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>-1.225003446404451</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>-1.227723064938732</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>-1.230339595698706</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +8028,132 @@
       <c r="E54" t="n">
         <v>-0.1856378934560161</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.1846141133728232</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.1834892359208745</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.1823261951189571</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.1811806159126274</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.1801003919619907</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.1791255651539244</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.1782884624428659</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.1776140276104186</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.1771202969817109</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.1768189753886977</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.1767160758950591</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-0.1768125934485761</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-0.1771051885531915</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-0.1775868621768456</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-0.1782476074372722</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-0.1790750271976742</v>
+      </c>
+      <c r="V54" t="n">
+        <v>-0.1800549096515305</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-0.1811717563860998</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-0.1824092593887688</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>-0.1837507250871293</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>-0.1851794448629108</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>-0.1866790126040717</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>-0.188173364393922</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>-0.1897157234692442</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>-0.1912902600498532</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>-0.1928828940534967</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>-0.194480825063599</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>-0.1960725927659043</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>-0.1976023065954408</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>-0.1991107062623929</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>-0.2005894971111957</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>-0.2020318962179953</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>-0.2034324048533062</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>-0.2047426090771989</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>-0.2060049501232429</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>-0.2072169238510047</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>-0.2083769646551025</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>-0.2094843362633349</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>-0.210539030509258</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>-0.2115416563250068</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>-0.2124933355237181</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>-0.2133956057269616</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +8171,132 @@
       <c r="E55" t="n">
         <v>-1.006604768650908</v>
       </c>
+      <c r="F55" t="n">
+        <v>-1.00930004770134</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1.011603418967</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-1.013618545632198</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-1.015436722473124</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-1.017136870557622</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-1.0187859359589</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-1.020439520924735</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-1.022142671088233</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-1.023930754208828</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-1.02583038274257</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-1.027860345858989</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-1.030032527096954</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-1.03235279185778</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-1.034821834692446</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-1.037435980242742</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-1.040187934167019</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-1.043067481831278</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-1.046062133339558</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-1.049157713909405</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-1.05233889888618</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>-1.055589692977241</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>-1.058893853650767</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>-1.062132756944148</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>-1.065405791897347</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>-1.068695165678035</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>-1.071985391300326</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>-1.075262049896205</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>-1.078512061306016</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>-1.081644608839782</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>-1.084734548295268</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>-1.087771673873038</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>-1.090747727862966</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>-1.093655925041382</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>-1.096413845627534</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>-1.099097014064053</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>-1.101702223172779</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>-1.1042273324034</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>-1.106671301757299</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>-1.109034032254429</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>-1.111316236258114</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>-1.113519311134015</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>-1.115645219701725</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +8314,132 @@
       <c r="E56" t="n">
         <v>-0.8806180833343089</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.8798712065147458</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.8798249259551043</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.8803898120582992</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.881484886928078</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.8830366346089644</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.8849783162933593</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.8872494292737952</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.8897952654711427</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.8925665327865481</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-0.8955190127679548</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.8986132368250637</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-0.9018141704774542</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.9050909007292788</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-0.9084163256640021</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-0.9117668478885623</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-0.9151220747631985</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-0.9184645287158262</v>
+      </c>
+      <c r="W56" t="n">
+        <v>-0.9217793706513873</v>
+      </c>
+      <c r="X56" t="n">
+        <v>-0.9250541387948538</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>-0.9282785044725125</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>-0.9314440455041628</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>-0.9345440371562792</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>-0.9374899931367551</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>-0.940370537725661</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>-0.9431811451790717</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>-0.9459191241464152</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>-0.9485827015747408</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>-0.9511709830456604</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>-0.9536194837423652</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>-0.9559975622350464</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>-0.9583054072510439</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>-0.9605437631923521</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>-0.9627138117627997</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>-0.9647554710360617</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>-0.9667339794152996</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>-0.9686514927734805</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>-0.9705098981602625</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>-0.9723112674190276</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>-0.9740577965095739</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>-0.9757517552153211</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>-0.9773954449917867</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>-0.9789911637457132</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +8457,132 @@
       <c r="E57" t="n">
         <v>-0.9130809783753107</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.9050892703501725</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.8988277595676415</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.894293574072262</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.891437460185929</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.8901741802414223</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.8903916177406295</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.8919586668243046</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.8947319816769315</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.8985616748903139</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.9032960579005567</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9087855161454307</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-0.9148856087821634</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-0.9214594788718747</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-0.9283796555111791</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-0.9355293247601413</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-0.9428031414735707</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-0.9501076493015911</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-0.9573613711804196</v>
+      </c>
+      <c r="X57" t="n">
+        <v>-0.9644946275950218</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>-0.9714491347959514</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>-0.978177430048468</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>-0.9846421659499832</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>-0.9907810487994676</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>-0.9966033911720271</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>-1.002097810297508</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>-1.007259718242477</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>-1.012090239175983</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>-1.016595397094963</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>-1.020730748662265</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>-1.024562619628787</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>-1.028107308813386</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>-1.03138300920057</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>-1.034409080935523</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>-1.037137938071991</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>-1.039658210728392</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>-1.041990027529031</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>-1.044153100905103</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>-1.046166295627366</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>-1.048047432923974</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>-1.049813141266684</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>-1.051478753023133</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>-1.053058243134942</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +8600,132 @@
       <c r="E58" t="n">
         <v>-1.091177622188783</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.076953910581614</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1.065418380089089</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-1.056450547956146</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1.049895183389716</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1.045571663797812</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-1.043282158919317</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-1.042818700378931</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-1.043969194846597</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-1.046522456247633</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-1.05027233816248</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.055021049241515</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-1.060581733553934</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-1.066780395559156</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-1.073457246471015</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-1.080467545446827</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-1.087682005354641</v>
+      </c>
+      <c r="V58" t="n">
+        <v>-1.094986828863043</v>
+      </c>
+      <c r="W58" t="n">
+        <v>-1.102283436266586</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-1.109487941840665</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-1.116530430678111</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>-1.123354082985183</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-1.12991418780651</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>-1.136146007600629</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>-1.142051340866672</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>-1.147616902428201</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>-1.152835802331496</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>-1.157708144811614</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-1.162239699352595</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>-1.166390587329904</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>-1.170223775731713</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>-1.173757091773912</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>-1.177009942468778</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>-1.18000320384246</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>-1.182696829933133</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>-1.185175104862225</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>-1.187459957785951</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>-1.189572634138083</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>-1.191533456431857</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>-1.193361600195096</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>-1.195074920432983</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>-1.196689836777381</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>-1.198221266614907</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +8743,132 @@
       <c r="E59" t="n">
         <v>-0.8272260925214948</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.8181463286365839</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.8100835422448214</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.80308038308077</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.7971529687033627</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.7922946856446212</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.7884797791388274</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.7856667728044553</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.7838016561017845</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.7828208093370307</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.7826536493751579</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.7832249895617345</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-0.7844571150070543</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-0.7862715801599859</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-0.7885907399447114</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-0.7913390289493066</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-0.7944440054473267</v>
+      </c>
+      <c r="V59" t="n">
+        <v>-0.7978371785593293</v>
+      </c>
+      <c r="W59" t="n">
+        <v>-0.8014546377514752</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-0.8052375042381641</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>-0.8091322238077887</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>-0.8130907202152664</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>-0.817070427658722</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>-0.8209725506292311</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>-0.8248318749646495</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>-0.8286208500908396</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>-0.8323164702389462</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>-0.8359004225279061</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>-0.8393586154764214</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>-0.8426235688267766</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>-0.8457484135886357</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>-0.8487288633636713</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>-0.8515633260512095</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>-0.8542525608065441</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>-0.8567388351595771</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>-0.8590887771308608</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>-0.8613074523464368</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>-0.8634012777781861</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>-0.8653773704471763</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>-0.8672433365556297</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>-0.8690070523162489</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>-0.8706764768562338</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>-0.872259494717443</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +8886,132 @@
       <c r="E60" t="n">
         <v>-0.4636989340048909</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.4500620951512687</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.4384536184716845</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.4288072844983033</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.4210290615748292</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.4150036183129694</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.4106000737952953</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.40767706676696</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.4060871649922448</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.4056806521119561</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-0.4063087326860613</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.4078261977366398</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-0.4100935934194918</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-0.4129789352947325</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-0.4163590103700611</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-0.4201203087178816</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-0.4241596259480859</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-0.4283843770429726</v>
+      </c>
+      <c r="W60" t="n">
+        <v>-0.4327126609378535</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-0.4370731137116448</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>-0.4414045863351977</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>-0.4456556806510713</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>-0.4497841746946402</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>-0.4537395547681147</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>-0.4575100345816256</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>-0.4610768205921474</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>-0.4644273243959693</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>-0.4675548283057283</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>-0.4704574681621453</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>-0.473106974996999</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>-0.4755387598836377</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>-0.4777614541548256</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>-0.4797857683256898</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>-0.481624095583379</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>-0.4832518822534893</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>-0.4847218151565031</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>-0.4860484451507522</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>-0.4872463111311354</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>-0.488329613256304</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>-0.4893120087946238</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>-0.4902064364071076</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>-0.4910249882840081</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>-0.4917788209835935</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +9029,132 @@
       <c r="E61" t="n">
         <v>0.3752749785107269</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.3770585763609376</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3787254932621037</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.3802519834321385</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.3816213587661742</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.3828231754614099</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.383852451095105</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.3847089134129378</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.3853962787886158</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.385921562114847</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.3862944226585791</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.3865265515684022</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.3866311067996821</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.3866222005100306</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.3865144427382233</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.3863225436497652</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.3860609750096113</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.3857436899808082</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.3853838989563599</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.3849938979786354</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.3845849454188687</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.3841671819832889</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.3837495887658861</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.3833521001382824</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.3829683791202053</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.3826042588393856</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.3822644426383883</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.381952559422947</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.3816713014398515</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0.3814348063225982</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.3812314972900784</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.3810618733494385</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.3809259039151049</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.3808230477624189</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0.3807657770614601</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.3807392120844411</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.3807417273286342</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.3807716378956136</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.380827128016666</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.3809063030067464</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.3810072371199689</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.3811280126904963</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.381266752511924</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +9172,132 @@
       <c r="E62" t="n">
         <v>-1.17756045610573</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.165565621005253</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1.156041207002587</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-1.148927723703964</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-1.144117042102709</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1.141464000682662</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-1.140796637356547</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-1.141925034958095</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-1.144648871581626</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-1.148763772244686</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-1.154066565045149</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.16035954565114</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-1.167453851772373</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-1.175172045591857</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-1.183349997737256</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-1.191838161573435</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-1.200502321517347</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-1.209223893740559</v>
+      </c>
+      <c r="W62" t="n">
+        <v>-1.217899852047201</v>
+      </c>
+      <c r="X62" t="n">
+        <v>-1.226442345930687</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>-1.234778071885024</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>-1.242847453062592</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>-1.250603676427184</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>-1.257968055709788</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>-1.264955382638898</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>-1.271549679097332</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>-1.277744932305755</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>-1.283542197784994</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>-1.288948620173347</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>-1.293911286008857</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>-1.298510403435624</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>-1.302765227059356</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>-1.306697775892206</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>-1.310331517335229</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>-1.313611727340126</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>-1.316642822035185</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>-1.319449367937639</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>-1.322055161231466</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>-1.324483011195227</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>-1.326754450486128</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>-1.328889552308785</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>-1.330906804754072</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>-1.332823037066587</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +9315,132 @@
       <c r="E63" t="n">
         <v>-0.6925377768392973</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6721137896826491</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.6534918735508995</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.6367088160581114</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.6217696079139347</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.6086512702726108</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.597306619350942</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.5876680370283144</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.5796511423560682</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.5731582975763448</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.56808189842486</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.5643074129910666</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-0.5617161446946001</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-0.5601877042271984</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-0.559602183211965</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-0.55984202915963</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-0.5607936271889334</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-0.5623485989718313</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-0.5644048334794313</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-0.5668672673586779</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-0.5696484351971564</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-0.5726688115888608</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>-0.5758569678695532</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>-0.5791104099917235</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-0.5824185709464562</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-0.585732543095741</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-0.5890097930937668</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-0.5922158656354424</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-0.5953229446492097</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-0.5982719921983394</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>-0.6010866672212385</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>-0.6037551103070492</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>-0.6062695623288057</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>-0.6086264595540359</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>-0.6107864627103121</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-0.6127925376460777</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>-0.6146490563520296</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>-0.6163624026177279</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>-0.6179403774194488</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>-0.619391809931463</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>-0.6207261947031929</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>-0.6219533905658229</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>-0.6230833640155118</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +9458,132 @@
       <c r="E64" t="n">
         <v>-0.8876407309055883</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.8798457777492299</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.8721881192800248</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.8649672530824586</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.8584096445413578</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.8526784901470184</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.847882764997316</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.8440855594298255</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.8413116880651098</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.8395545730041929</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-0.8387824192627171</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.838943710423225</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-0.839972058184258</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-0.8417904426611357</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-0.8443148820079058</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-0.8474575708158848</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-0.8511295271425144</v>
+      </c>
+      <c r="V64" t="n">
+        <v>-0.8552427880911728</v>
+      </c>
+      <c r="W64" t="n">
+        <v>-0.8597121936508643</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-0.8644567980195045</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>-0.8694009468677262</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>-0.8744750579487528</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>-0.8796161411327487</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>-0.8847197100163686</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>-0.8897862157856691</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>-0.8947728300464199</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>-0.8996433084804477</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>-0.9043682647915768</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>-0.9089244820473352</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>-0.9132360126831209</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>-0.9173498997546613</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>-0.9212580760751163</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>-0.9249568372674378</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>-0.9284462080458123</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>-0.9316602969076542</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>-0.9346752983833828</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>-0.9374983859266237</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>-0.940138852457274</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>-0.9426072423748207</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>-0.9449149183536614</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>-0.9470737257617452</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>-0.949095703010716</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>-0.9509928346935028</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +9601,132 @@
       <c r="E65" t="n">
         <v>-0.07969684805440791</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.06705563378280044</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.05633327285028623</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.04741978245761028</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.04019238295847017</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.03451937654816935</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.03026354861253398</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.02728516874510284</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.02544460207647034</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.02460455040936137</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.0246319425249846</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.02539949349164049</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-0.02678695331126834</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-0.02868206607648667</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-0.0309812619337931</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-0.03359010537552527</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-0.03642352449485361</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-0.03940584664299878</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-0.04247066629358895</v>
+      </c>
+      <c r="X65" t="n">
+        <v>-0.04556057078054328</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-0.04862674892921515</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>-0.05162850648928068</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>-0.05453271077652511</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>-0.05729571797909613</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>-0.05991479090296127</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>-0.06237490895773322</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>-0.06466664408538653</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>-0.06678530566234794</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>-0.06873002103787998</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>-0.07047808262956344</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>-0.07205962943845332</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>-0.07348159280129399</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>-0.07475264832295199</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>-0.07588276259553411</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>-0.07685339494455823</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>-0.07770556011786331</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>-0.0784507260860802</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>-0.07910023546079159</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>-0.07966512568887164</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>-0.08015597014039494</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>-0.08058274370960729</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>-0.08095472860008629</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>-0.08128045054878628</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +9744,132 @@
       <c r="E66" t="n">
         <v>-0.7538596281526454</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.7409280156241317</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.7310970650948856</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.7241208506330062</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.7197357873215517</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.7176689144396508</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.717644975276977</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.7193922991592621</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.7226475934994995</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.7271597514206087</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-0.7326927780220825</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.7390279340108208</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-0.7459651903039822</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-0.7533240820111581</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-0.7609440451448731</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-0.7686843144509941</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-0.776423455758092</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-0.7840586010894648</v>
+      </c>
+      <c r="W66" t="n">
+        <v>-0.7915044493927865</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-0.7986920901186713</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>-0.8055677010785485</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>-0.8120911661315366</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>-0.8182346524047996</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>-0.8239604061566497</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>-0.8292750040153569</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>-0.8341797940362077</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>-0.8386829424184964</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>-0.8427983692354338</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-0.8465444358192677</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>-0.8499011935360077</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>-0.8529323214201692</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>-0.8556642734371208</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>-0.8581240329266676</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>-0.8603387682259211</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>-0.8622829715665279</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>-0.8640348158970631</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>-0.8656197660530537</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>-0.8670611994936179</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>-0.8683807750996981</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>-0.8695982933105846</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>-0.8707316256361196</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>-0.8717966987046121</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>-0.8728075204449118</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +9886,132 @@
       </c>
       <c r="E67" t="n">
         <v>-0.7151052156764097</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.6993432556611549</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.6880359296630032</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.6806803068750615</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.6767858672067467</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.6758809021805927</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.6775176380488108</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.6812761427962193</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.6867671466840218</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.6936339048618825</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.7015532222285408</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.710235752238869</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.7194256736496498</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.7288998423908657</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.7384665096025077</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.7479636910081747</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.7572572668578792</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.7662388854328642</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.7748237364734848</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.782948253898477</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.7905677999488964</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.7976543755796749</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.8041943947165561</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.8101646450266653</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.8155878416521722</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.8204827242848818</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.8248747727570889</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.8287944129973284</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.8322757140160126</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.8353128770670666</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.837983475561339</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.8403264702226316</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.8423799768735357</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.8441808076614606</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.8457126054854149</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.847059790800358</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.8482535948245438</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.8493220189076036</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.8502902135448668</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.8511804942294762</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.8520123816952681</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.8528026931466918</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.8535656738989926</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_variables_matrix_8.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_8.xlsx
@@ -443,530 +443,530 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.3211043499127476</v>
+        <v>-0.2281753114861543</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3259533390584821</v>
+        <v>-0.2988997082525781</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.213303373716679</v>
+        <v>-0.4326965787410214</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1978902336276767</v>
+        <v>-0.3423569198510998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1525587999853934</v>
+        <v>-0.4806731804802525</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1309485718638484</v>
+        <v>-0.4223015327360145</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.05827854371500717</v>
+        <v>-0.1697375720733556</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.08566793824230819</v>
+        <v>-0.2178148114610044</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1403707434107166</v>
+        <v>-0.1437041167107272</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1276278515980622</v>
+        <v>-0.1270715290878877</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.4450174409816785</v>
+        <v>-0.3087157909330267</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.4614384876614183</v>
+        <v>-0.2978266703906248</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.3030301672705884</v>
+        <v>-0.4588758238577187</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2709866285093435</v>
+        <v>-0.3865040774120232</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.409749234058028</v>
+        <v>-0.575666506424015</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4209679496845873</v>
+        <v>-0.4428253631487147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.3113341736687468</v>
+        <v>-0.4515125164023661</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3436887837841155</v>
+        <v>-0.2602305688054568</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.2091865009652586</v>
+        <v>-0.2941110275999199</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2482459491696268</v>
+        <v>-0.291579227651739</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.1091532854651345</v>
+        <v>-0.2246411833686304</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1087508898535332</v>
+        <v>-0.1890673678760373</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.003577772028258448</v>
+        <v>-0.06854032025181718</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.01150366747922753</v>
+        <v>-0.07819663191348619</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.00473952087660777</v>
+        <v>-0.2539289094481106</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01155081633247283</v>
+        <v>-0.184774255186958</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1343171140022825</v>
+        <v>-0.1166134280791809</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.05835925389335367</v>
+        <v>-0.02791616864122348</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1950579304236688</v>
+        <v>-0.170070281675273</v>
       </c>
       <c r="B16" t="n">
-        <v>0.285877318254868</v>
+        <v>-0.05626159619898492</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.5365672997990478</v>
+        <v>0.08578589334121202</v>
       </c>
       <c r="B17" t="n">
-        <v>0.56250432385674</v>
+        <v>0.1463924458497362</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.07574279870074785</v>
+        <v>0.01934695546148901</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04894586001739845</v>
+        <v>0.04556771774731427</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3883739458912365</v>
+        <v>0.02976926871651094</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3804570174281816</v>
+        <v>0.08822422933785865</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1759387395182929</v>
+        <v>-0.1192795403559119</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2361495213532234</v>
+        <v>-0.0550419988408351</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.3666326857304784</v>
+        <v>0.03906960831486925</v>
       </c>
       <c r="B21" t="n">
-        <v>0.461768780998448</v>
+        <v>0.05901722641829715</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.3079014554893899</v>
+        <v>0.0627896640118632</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3414699679455382</v>
+        <v>0.1241279045274134</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.1049391584056181</v>
+        <v>0.0338726269401972</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.09238712393905801</v>
+        <v>0.03884071518017512</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.411966037716434</v>
+        <v>0.8113989313042456</v>
       </c>
       <c r="B24" t="n">
-        <v>4.534771994148857</v>
+        <v>0.5938562671908888</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5712321784914061</v>
+        <v>0.1302054731247136</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5243884960126119</v>
+        <v>0.09281944634686716</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.3476013772240313</v>
+        <v>0.1515642609823832</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3878503826166212</v>
+        <v>0.1251295574012061</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.3240534889563179</v>
+        <v>0.1055232266952809</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3341320112815402</v>
+        <v>0.1089181200362979</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.091560579196456</v>
+        <v>0.2982855054839414</v>
       </c>
       <c r="B28" t="n">
-        <v>1.096722682763318</v>
+        <v>0.1882753136055874</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.271004817915466</v>
+        <v>0.6315833236605232</v>
       </c>
       <c r="B29" t="n">
-        <v>5.863480215210426</v>
+        <v>0.5127470668831878</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.006536378306404</v>
+        <v>0.2014041362207585</v>
       </c>
       <c r="B30" t="n">
-        <v>1.00351129465251</v>
+        <v>0.1598295481381244</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.1107352304013519</v>
+        <v>0.02481128159909759</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.15159602179001</v>
+        <v>0.03514478001957373</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.8299898334896445</v>
+        <v>0.1737050911834538</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8266861627833791</v>
+        <v>0.1714746687135577</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9311484844234506</v>
+        <v>0.1182487954320816</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9460996050162945</v>
+        <v>0.1259171087411987</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.571545222856736</v>
+        <v>0.08883989179839069</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6177245420987975</v>
+        <v>0.04951101369534622</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8422799497444543</v>
+        <v>0.4018459552159545</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8228751327700211</v>
+        <v>0.2577559197610668</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8024978359850354</v>
+        <v>0.260730527606143</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7853821015207229</v>
+        <v>0.1247549647763282</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.7912172320552134</v>
+        <v>0.06585361720161836</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7609076149438667</v>
+        <v>-0.01132238630589366</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.7837700563970399</v>
+        <v>0.3322606920892029</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7366364435688462</v>
+        <v>0.273073446524114</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.5860965796672563</v>
+        <v>-0.07060256033685686</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5855243524946664</v>
+        <v>-0.1582765077064184</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.7552916384599927</v>
+        <v>0.1787789290427507</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7561083832988317</v>
+        <v>0.1724357899974115</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.5824985163072363</v>
+        <v>-0.1169184665546673</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5622956694324531</v>
+        <v>-0.173198470314575</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7526836556520303</v>
+        <v>0.2418133223432772</v>
       </c>
       <c r="B42" t="n">
-        <v>0.717555762537827</v>
+        <v>0.2173282928449247</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7502657742423009</v>
+        <v>0.1916137478952961</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7238315262564594</v>
+        <v>0.1530728756710596</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.6824888561590887</v>
+        <v>-0.1213111496745746</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6827550122941594</v>
+        <v>-0.09565828784753705</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.6803937877007739</v>
+        <v>-0.105815105790153</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6771136849576195</v>
+        <v>-0.1032814672089365</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.24633521895066</v>
+        <v>-0.1894810015761276</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.259800347351256</v>
+        <v>-0.1804892429802131</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.9626100134245785</v>
+        <v>-0.1889844693614678</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9744785939232784</v>
+        <v>-0.181158037485951</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.8532902459198494</v>
+        <v>-0.2285643802945282</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8670915112362984</v>
+        <v>-0.207368933605906</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.625930780610612</v>
+        <v>-0.2211384405771495</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6387216172683954</v>
+        <v>-0.205019093253885</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.0485066351980171</v>
+        <v>-0.1542242326987149</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.04741797340894434</v>
+        <v>-0.1444851799490377</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.8439751862521701</v>
+        <v>-0.2132275859158974</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8597263583354644</v>
+        <v>-0.2256221463837091</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.8439751862521701</v>
+        <v>-0.2132275859158974</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8597263583354644</v>
+        <v>-0.2256221463837091</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-1.059977206488503</v>
+        <v>-0.2071471597225397</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.084026444314512</v>
+        <v>-0.191734616525058</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.1869669533458129</v>
+        <v>-0.207856041027209</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1873877067204152</v>
+        <v>-0.2038544479223625</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.9851476851446858</v>
+        <v>-0.1710765624915974</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.9949076990006762</v>
+        <v>-0.1552346643470963</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.8990459399982134</v>
+        <v>-0.150051687702363</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8880174882996399</v>
+        <v>-0.1457404176251496</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.9836382434262938</v>
+        <v>-0.1976795480467335</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9465298564717861</v>
+        <v>-0.1578538221516333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-1.198312682398943</v>
+        <v>-0.18036077218508</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.150464319453582</v>
+        <v>-0.2109048882063121</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.8872480817410606</v>
+        <v>-0.221485526579741</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.8597473676828168</v>
+        <v>-0.2353069304415698</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.5482761642896989</v>
+        <v>-0.2094013024649638</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5169242166440466</v>
+        <v>-0.2352997651909498</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.3642531991403423</v>
+        <v>-0.2655496591401728</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3695974316258775</v>
+        <v>-0.2272365813879831</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.280524550406726</v>
+        <v>-0.1642320694870018</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.227904722946455</v>
+        <v>-0.1064504400080818</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.7950617336764875</v>
+        <v>-0.3436512458246397</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.7638931319371256</v>
+        <v>-0.3869883425053283</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.9052236543724776</v>
+        <v>-0.2723036396626605</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9076479785611221</v>
+        <v>-0.2638794487875365</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.1677027100732056</v>
+        <v>-0.1936561084382792</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1299984289218459</v>
+        <v>-0.2275422745700788</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.8678043789967734</v>
+        <v>-0.1196590449759944</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8131741492812394</v>
+        <v>-0.09956497374286856</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.8872140693307469</v>
+        <v>-0.0589316749074649</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7940639888657253</v>
+        <v>-0.0601353920044297</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_variables_matrix_8.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,13 +440,115 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.2281753114861543</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2988997082525781</v>
+        <v>-21.21388117712223</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1399.232003456481</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-87265.99487455742</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-4796126.499715793</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-227941942.7251305</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-14588210320.20412</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-819154161374.2261</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-43010591495243.62</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1908801495684842</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-5.920635296699891e+16</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.163114548291062e+17</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.605331777219806e+20</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.87879178893859e+22</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.754609033258283e+24</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.425096128981247e+26</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.058597794641019e+28</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7.564684989205917e+29</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.40379724425737e+31</v>
       </c>
     </row>
     <row r="3">
@@ -454,7 +556,58 @@
         <v>-0.4326965787410214</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3423569198510998</v>
+        <v>-40.47096669038982</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3753.015986928813</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-315244.2574511708</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-24764179.11755835</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-1736801508.603059</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-163064236565.5231</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-12580289935070.46</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-831756778111640.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-3.035832940501194e+16</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.040459138779302e+18</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8.676935278034341e+20</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.287375787786908e+23</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.631785004376234e+25</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.986913168170591e+27</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.298741828129029e+29</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.542047004919754e+31</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.75091087997015e+33</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.985203636799858e+35</v>
       </c>
     </row>
     <row r="4">
@@ -462,7 +615,58 @@
         <v>-0.4806731804802525</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.4223015327360145</v>
+        <v>-37.40784477507545</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2968.638490041437</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-221559.849870803</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-17627645.67272064</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-1509810186.364636</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-137050005396.6118</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-11204824521424.16</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-884322353769476.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-6.541993448374316e+16</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-4.433085244595565e+18</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-2.845638101672528e+20</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-1.887371233648284e+22</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-1.26717574394207e+24</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-7.698234782626179e+25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-4.483850738154658e+27</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-2.868201624848995e+29</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-2.064144869766429e+31</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-1.352246529085707e+33</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +674,58 @@
         <v>-0.1697375720733556</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2178148114610044</v>
+        <v>-21.77258299777907</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1857.070227356173</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-145430.3401364586</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-12122210.70738404</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-1078142037.864695</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-106500948471.3593</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-8946483254613.758</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-669979139498040.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-4.199285606046213e+16</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-1.922019832306131e+18</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-2.271461802841663e+19</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7.569127372398162e+21</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.346708924537361e+24</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.790219267022945e+26</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.015496466498763e+28</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.04340699202335e+30</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.980204757227045e+32</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.922466223553428e+34</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +733,58 @@
         <v>-0.1437041167107272</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1270715290878877</v>
+        <v>4.147743583014456</v>
+      </c>
+      <c r="C6" t="n">
+        <v>501.8733468964099</v>
+      </c>
+      <c r="D6" t="n">
+        <v>73684.69284227054</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6549126.568017119</v>
+      </c>
+      <c r="F6" t="n">
+        <v>323261745.2907668</v>
+      </c>
+      <c r="G6" t="n">
+        <v>15596529172.74229</v>
+      </c>
+      <c r="H6" t="n">
+        <v>901898887946.0398</v>
+      </c>
+      <c r="I6" t="n">
+        <v>111597934385257.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.966903132984041e+16</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.973871163823008e+18</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.117182707007245e+20</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.269946980891107e+22</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.296949884495156e+24</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7.216395411495698e+26</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7.836148210940771e+28</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>8.117762104023749e+30</v>
+      </c>
+      <c r="R6" t="n">
+        <v>8.227200070431247e+32</v>
+      </c>
+      <c r="S6" t="n">
+        <v>8.360880323591377e+34</v>
       </c>
     </row>
     <row r="7">
@@ -486,7 +792,58 @@
         <v>-0.3087157909330267</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2978266703906248</v>
+        <v>-17.75079451609747</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1050.487247011139</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-58967.01152823955</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-3233635.7446271</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-179095201.1947637</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-11858132251.41842</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-669972133496.1293</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-33549089570292.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1428017431308335</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-4.570510032072037e+16</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-6.06524517148417e+17</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5.187912184502551e+19</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7.175547507019883e+21</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6.7380342174733e+23</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5.264781883349685e+25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.697193542144713e+27</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.481613214827769e+29</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.663542807878605e+31</v>
       </c>
     </row>
     <row r="8">
@@ -494,7 +851,58 @@
         <v>-0.4588758238577187</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.3865040774120232</v>
+        <v>-26.22371219114471</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1784.666923476493</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-113089.7828582174</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-7239924.945634431</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-485361133.0310518</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-35943921036.61185</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-2405621718524.854</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-159249603387283</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-9759207956372368</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-5.285573290738295e+17</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-2.569987652829793e+19</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-1.227035869259591e+21</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-5.273205630929992e+22</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-7.843612766983553e+23</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.587221758787838e+26</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.549940057325827e+28</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.846278853785787e+30</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.913644609126963e+32</v>
       </c>
     </row>
     <row r="9">
@@ -502,7 +910,58 @@
         <v>-0.575666506424015</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.4428253631487147</v>
+        <v>-25.28203688670373</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1547.074428474571</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-90605.29607836205</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-5119408.37311998</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-279992345.177054</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-17896003787.62893</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-1000237278403.396</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-52086024247616.24</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-2335822557568906</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-7.499603477896438e+16</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-3.637111770584883e+17</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.895020894358982e+20</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.346168658730388e+22</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.235428009190165e+24</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.830421599491952e+26</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.362574377194974e+28</v>
+      </c>
+      <c r="R9" t="n">
+        <v>9.731866830294346e+29</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6.954123969380815e+31</v>
       </c>
     </row>
     <row r="10">
@@ -510,7 +969,58 @@
         <v>-0.4515125164023661</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2602305688054568</v>
+        <v>-47.61227925180086</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5624.236314032604</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-568489.9493244075</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-50501788.0685906</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-4032473035.543762</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-445103847663.7516</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-43961829408427.32</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-4228623505211580</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-3.745646189205339e+17</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-2.832587337003636e+19</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-1.661803492653283e+21</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-4.82662536191298e+22</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8.099855302785906e+24</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.408079103679305e+27</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.966072753443406e+29</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5.182695852485803e+31</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6.154980284831694e+33</v>
+      </c>
+      <c r="S10" t="n">
+        <v>7.338927120409955e+35</v>
       </c>
     </row>
     <row r="11">
@@ -518,7 +1028,58 @@
         <v>-0.2941110275999199</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.291579227651739</v>
+        <v>-20.84596958451777</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1285.090034361167</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-74152.163656545</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-4432337.51397625</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-279582808.3580838</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-19513094068.36728</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1180425236290.021</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-64533841991752.45</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-3097675750645198</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-1.217631415014402e+17</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-3.457133767682979e+18</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-3.948050772301572e+19</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.988620940195884e+21</v>
+      </c>
+      <c r="O11" t="n">
+        <v>9.445795618972069e+23</v>
+      </c>
+      <c r="P11" t="n">
+        <v>9.137452652833126e+25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7.345549788153504e+27</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5.506665436818805e+29</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4.102850056978989e+31</v>
       </c>
     </row>
     <row r="12">
@@ -526,7 +1087,58 @@
         <v>-0.2246411833686304</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1890673678760373</v>
+        <v>-21.62550308852965</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1367.974953981065</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-76972.03221876408</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-4273277.408754955</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-238893765.3854648</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-16110638684.88423</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-915222689119.7074</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-45497341338582.86</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1710889629607330</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-1.909308393305747e+16</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.282071901419084e+18</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5.468667471494575e+20</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.986395028231673e+22</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4.170467161177857e+24</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.212737456103598e+26</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.321388400939309e+28</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.628504751379911e+30</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.145510232620855e+32</v>
       </c>
     </row>
     <row r="13">
@@ -534,7 +1146,58 @@
         <v>-0.06854032025181718</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.07819663191348619</v>
+        <v>-5.624076057906507</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-538.3566869256807</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-47113.31912544569</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-4844925.628243077</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-515982671.8693504</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-44705263276.24577</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-3208439911280.927</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-205057845151600.2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-1.143030077201515e+16</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-4.954017261303353e+17</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-1.153272547779811e+19</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4.992879213049534e+20</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.168315433855478e+23</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.524504931521229e+25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.585766137401837e+27</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.458369027271761e+29</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.275827543515101e+31</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.113572968215225e+33</v>
       </c>
     </row>
     <row r="14">
@@ -542,7 +1205,58 @@
         <v>-0.2539289094481106</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.184774255186958</v>
+        <v>-15.19887564073898</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-863.1389850081462</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-46539.21747352977</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-2589397.285134597</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-141068448.6792897</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-7661361323.314109</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-322454554234.7686</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-10598774932299.23</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-90125945820807.75</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.138327443793474e+16</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.105472284526129e+18</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.690151876266407e+20</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.919827614364166e+22</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.169501387935919e+24</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.507457548426127e+26</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.903050709839004e+27</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6.330426753123109e+29</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4.058444132134777e+31</v>
       </c>
     </row>
     <row r="15">
@@ -550,7 +1264,58 @@
         <v>-0.1166134280791809</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.02791616864122348</v>
+        <v>-7.386887556913313</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-378.5740135547437</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-18560.55035079438</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-900269.8699964504</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-41721702.16677549</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1897952335.543669</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-65724073930.55779</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-1675874732889.821</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1307519920218.359</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4130133501258131</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.927362622003204e+17</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.687531056996697e+19</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.640624053052692e+21</v>
+      </c>
+      <c r="O15" t="n">
+        <v>9.520101793460585e+22</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5.214650148098683e+24</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.719415268131568e+26</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.385082218663528e+28</v>
+      </c>
+      <c r="S15" t="n">
+        <v>7.074807622452301e+29</v>
       </c>
     </row>
     <row r="16">
@@ -558,7 +1323,58 @@
         <v>-0.170070281675273</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.05626159619898492</v>
+        <v>-9.649825963072102</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-430.9382127061749</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-18881.11038074438</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-830651.3754474121</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-34821505.73236059</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-1308644925.95394</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-38060621161.04089</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-844076156188.1879</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3793196106991.086</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2360256026799129</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.183786015259351e+17</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.540596749775204e+19</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9.656841994028888e+20</v>
+      </c>
+      <c r="O16" t="n">
+        <v>5.597819068218912e+22</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.999986694935804e+24</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.506117212950282e+26</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7.315914693393534e+27</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.562919005307694e+29</v>
       </c>
     </row>
     <row r="17">
@@ -566,7 +1382,58 @@
         <v>0.08578589334121202</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1463924458497362</v>
+        <v>-2.290865404866368</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-88.10909963358417</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-2260.762232095289</v>
+      </c>
+      <c r="E17" t="n">
+        <v>53978.19748223835</v>
+      </c>
+      <c r="F17" t="n">
+        <v>14480346.17390307</v>
+      </c>
+      <c r="G17" t="n">
+        <v>995498867.1993561</v>
+      </c>
+      <c r="H17" t="n">
+        <v>65499430668.58382</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3766926504712.066</v>
+      </c>
+      <c r="J17" t="n">
+        <v>200590604598353.4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.032065118424155e+16</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5.15267836577666e+17</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.508893521698626e+19</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.202885695073045e+21</v>
+      </c>
+      <c r="O17" t="n">
+        <v>5.750879560330343e+22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.740883875912602e+24</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.304122565255046e+26</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6.210570911358789e+27</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.962844336680722e+29</v>
       </c>
     </row>
     <row r="18">
@@ -574,7 +1441,58 @@
         <v>0.01934695546148901</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04556771774731427</v>
+        <v>-2.790599469626732</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-302.5267447656141</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-22685.8587379028</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1078737.54591656</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-19461656.91763522</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-392426096.6364512</v>
+      </c>
+      <c r="H18" t="n">
+        <v>72850383155.11778</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9792558045297.773</v>
+      </c>
+      <c r="J18" t="n">
+        <v>886202829255342.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6.953630588456758e+16</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.839096466758707e+18</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3.051207079449771e+20</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.841095850347109e+22</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.112940722349524e+24</v>
+      </c>
+      <c r="P18" t="n">
+        <v>6.726950906001163e+25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4.067504954712522e+27</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.465303154885928e+29</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.497629973141895e+31</v>
       </c>
     </row>
     <row r="19">
@@ -582,7 +1500,58 @@
         <v>0.02976926871651094</v>
       </c>
       <c r="B19" t="n">
-        <v>0.08822422933785865</v>
+        <v>0.88348592226691</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-50.7033733868475</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-5200.73843427713</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-489699.1556196243</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-39499794.78581921</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-2953209227.786104</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-155728018460.5471</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-5896774329525.089</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-95399767899085.22</v>
+      </c>
+      <c r="K19" t="n">
+        <v>8814313868395012</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.201333235814537e+18</v>
+      </c>
+      <c r="M19" t="n">
+        <v>9.595830301804321e+19</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.60617501191937e+21</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4.353921406648848e+23</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.712413220901875e+25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.607284522517129e+27</v>
+      </c>
+      <c r="R19" t="n">
+        <v>9.296596378548094e+28</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5.391919234339438e+30</v>
       </c>
     </row>
     <row r="20">
@@ -590,7 +1559,58 @@
         <v>-0.1192795403559119</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0550419988408351</v>
+        <v>-7.612673686326525</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-305.9226832355193</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-12800.60813370588</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-544706.4244542833</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-22288376.94546613</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-795014279.0308406</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-19902063187.0961</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-329469822281.8686</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4851229792878.879</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1106130383766386</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8.797827265156365e+16</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5.508617626113164e+18</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.096891248483467e+20</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.633993788846225e+22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>8.045882977747961e+23</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3.736846308830904e+25</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.686412418386272e+27</v>
+      </c>
+      <c r="S20" t="n">
+        <v>7.632328411192383e+28</v>
       </c>
     </row>
     <row r="21">
@@ -598,7 +1618,58 @@
         <v>0.03906960831486925</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05901722641829715</v>
+        <v>-9.815518452204698</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-556.8165796196337</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-26981.27679809627</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1541116.684159268</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-102230467.7313113</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-4988046007.147652</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-201889288050.3697</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-7876703005054.812</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-227192409626065.7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3690811276682712</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.549482300085783e+18</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.93018756463876e+20</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.820372311708728e+22</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.46993174895762e+24</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.0506329953784e+26</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>6.84399996185197e+27</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4.254713637941748e+29</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.65134354906877e+31</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +1677,58 @@
         <v>0.0627896640118632</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1241279045274134</v>
+        <v>1.241264365982521</v>
+      </c>
+      <c r="C22" t="n">
+        <v>151.7498218681783</v>
+      </c>
+      <c r="D22" t="n">
+        <v>14509.54162441177</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1017545.822547341</v>
+      </c>
+      <c r="F22" t="n">
+        <v>69532957.02955367</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5261992821.126507</v>
+      </c>
+      <c r="H22" t="n">
+        <v>426294800484.018</v>
+      </c>
+      <c r="I22" t="n">
+        <v>31602357783211.92</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2224364873207644</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.544495476364191e+17</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.082047584991612e+19</v>
+      </c>
+      <c r="M22" t="n">
+        <v>7.662781747746578e+20</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5.366999929725383e+22</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3.696385264529723e+24</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.476425279793782e+26</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.614908140924034e+28</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.03947782556426e+30</v>
+      </c>
+      <c r="S22" t="n">
+        <v>6.707002469216009e+31</v>
       </c>
     </row>
     <row r="23">
@@ -614,7 +1736,58 @@
         <v>0.0338726269401972</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03884071518017512</v>
+        <v>-4.95597569515381</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-260.6218364666998</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-11584.68440917209</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-859881.185603297</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-75652817.6516988</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-4167254839.261576</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-107659313661.5982</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3988203325642.717</v>
+      </c>
+      <c r="J23" t="n">
+        <v>922055828519671</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.031947783110835e+17</v>
+      </c>
+      <c r="L23" t="n">
+        <v>9.211579522457462e+18</v>
+      </c>
+      <c r="M23" t="n">
+        <v>7.264300983186046e+20</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5.394147552716054e+22</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3.899354027488006e+24</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.715913266265051e+26</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.829009885349771e+28</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.212458419155012e+30</v>
+      </c>
+      <c r="S23" t="n">
+        <v>8.05890682147476e+31</v>
       </c>
     </row>
     <row r="24">
@@ -622,7 +1795,58 @@
         <v>0.8113989313042456</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5938562671908888</v>
+        <v>1.240322596592684</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7.014764595565396</v>
+      </c>
+      <c r="D24" t="n">
+        <v>41.06116660847442</v>
+      </c>
+      <c r="E24" t="n">
+        <v>246.1982047917522</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1465.560188939507</v>
+      </c>
+      <c r="G24" t="n">
+        <v>8262.683217451973</v>
+      </c>
+      <c r="H24" t="n">
+        <v>43555.69663151179</v>
+      </c>
+      <c r="I24" t="n">
+        <v>242948.1807804677</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1246932.682855924</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5139236.654506249</v>
+      </c>
+      <c r="L24" t="n">
+        <v>16780447.07843398</v>
+      </c>
+      <c r="M24" t="n">
+        <v>52746131.78466463</v>
+      </c>
+      <c r="N24" t="n">
+        <v>78326625.14582253</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-1949754877.204292</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-36054294789.70355</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-444704855447.2375</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-4614364291292.354</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-43245379499608.39</v>
       </c>
     </row>
     <row r="25">
@@ -630,7 +1854,58 @@
         <v>0.1302054731247136</v>
       </c>
       <c r="B25" t="n">
-        <v>0.09281944634686716</v>
+        <v>2.15458092876931</v>
+      </c>
+      <c r="C25" t="n">
+        <v>37.44704600729531</v>
+      </c>
+      <c r="D25" t="n">
+        <v>654.5602698110325</v>
+      </c>
+      <c r="E25" t="n">
+        <v>14042.97745101445</v>
+      </c>
+      <c r="F25" t="n">
+        <v>374672.7223048708</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8641345.246888513</v>
+      </c>
+      <c r="H25" t="n">
+        <v>191146964.5991846</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4145617049.529007</v>
+      </c>
+      <c r="J25" t="n">
+        <v>87982289830.43077</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1837938675528.201</v>
+      </c>
+      <c r="L25" t="n">
+        <v>38132458173940.28</v>
+      </c>
+      <c r="M25" t="n">
+        <v>793381853899194</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.658141152143054e+16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3.516237282101359e+17</v>
+      </c>
+      <c r="P25" t="n">
+        <v>7.736142244410485e+18</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.776850204322091e+20</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4.180489638878082e+21</v>
+      </c>
+      <c r="S25" t="n">
+        <v>9.836871619150375e+22</v>
       </c>
     </row>
     <row r="26">
@@ -638,7 +1913,58 @@
         <v>0.1515642609823832</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1251295574012061</v>
+        <v>2.186489316368024</v>
+      </c>
+      <c r="C26" t="n">
+        <v>34.64276865481154</v>
+      </c>
+      <c r="D26" t="n">
+        <v>553.2323531918478</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8642.461695265552</v>
+      </c>
+      <c r="F26" t="n">
+        <v>139341.1963568057</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2400444.258268733</v>
+      </c>
+      <c r="H26" t="n">
+        <v>42448764.93842258</v>
+      </c>
+      <c r="I26" t="n">
+        <v>786909864.4520237</v>
+      </c>
+      <c r="J26" t="n">
+        <v>14846638849.39455</v>
+      </c>
+      <c r="K26" t="n">
+        <v>278021688395.3302</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5128550340769.677</v>
+      </c>
+      <c r="M26" t="n">
+        <v>92821802371705.67</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1666536263892248</v>
+      </c>
+      <c r="O26" t="n">
+        <v>3.031971306411528e+16</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5.642273401654075e+17</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.075135587796044e+19</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.076128340202465e+20</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.010418029313612e+21</v>
       </c>
     </row>
     <row r="27">
@@ -646,7 +1972,58 @@
         <v>0.1055232266952809</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1089181200362979</v>
+        <v>1.854827944251413</v>
+      </c>
+      <c r="C27" t="n">
+        <v>27.17063268058551</v>
+      </c>
+      <c r="D27" t="n">
+        <v>391.4751263810417</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5512.008944993809</v>
+      </c>
+      <c r="F27" t="n">
+        <v>80192.94096666019</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1245724.042188753</v>
+      </c>
+      <c r="H27" t="n">
+        <v>19295717.62930775</v>
+      </c>
+      <c r="I27" t="n">
+        <v>305033006.4484629</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4818252323.235994</v>
+      </c>
+      <c r="K27" t="n">
+        <v>75801761198.41826</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1195717921490.213</v>
+      </c>
+      <c r="M27" t="n">
+        <v>18989782598034.24</v>
+      </c>
+      <c r="N27" t="n">
+        <v>303250458463789.5</v>
+      </c>
+      <c r="O27" t="n">
+        <v>4892241773796814</v>
+      </c>
+      <c r="P27" t="n">
+        <v>8.026327755435202e+16</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.339361495680792e+18</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.25552825429021e+19</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.798745302027926e+20</v>
       </c>
     </row>
     <row r="28">
@@ -654,7 +2031,58 @@
         <v>0.2982855054839414</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1882753136055874</v>
+        <v>2.398062313793873</v>
+      </c>
+      <c r="C28" t="n">
+        <v>36.40451254836515</v>
+      </c>
+      <c r="D28" t="n">
+        <v>543.3167279173431</v>
+      </c>
+      <c r="E28" t="n">
+        <v>9011.374672276443</v>
+      </c>
+      <c r="F28" t="n">
+        <v>169411.0959974693</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2900408.227243128</v>
+      </c>
+      <c r="H28" t="n">
+        <v>45636065.11924858</v>
+      </c>
+      <c r="I28" t="n">
+        <v>698384469.4401591</v>
+      </c>
+      <c r="J28" t="n">
+        <v>9686344257.832024</v>
+      </c>
+      <c r="K28" t="n">
+        <v>119129490164.9681</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1319168448405.082</v>
+      </c>
+      <c r="M28" t="n">
+        <v>14517271040431.81</v>
+      </c>
+      <c r="N28" t="n">
+        <v>148486271168551.2</v>
+      </c>
+      <c r="O28" t="n">
+        <v>819637565554429.5</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-8684527802333936</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-3.660745829524896e+17</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-8.220982785085858e+18</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-1.796881632079576e+20</v>
       </c>
     </row>
     <row r="29">
@@ -662,7 +2090,58 @@
         <v>0.6315833236605232</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5127470668831878</v>
+        <v>1.513214802738343</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8.644388161627646</v>
+      </c>
+      <c r="D29" t="n">
+        <v>47.3946723115081</v>
+      </c>
+      <c r="E29" t="n">
+        <v>296.7912942321408</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2170.400940636381</v>
+      </c>
+      <c r="G29" t="n">
+        <v>13743.70875083488</v>
+      </c>
+      <c r="H29" t="n">
+        <v>86406.7551641246</v>
+      </c>
+      <c r="I29" t="n">
+        <v>567529.6192958103</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3544265.340562668</v>
+      </c>
+      <c r="K29" t="n">
+        <v>20595737.02967358</v>
+      </c>
+      <c r="L29" t="n">
+        <v>110637948.3447013</v>
+      </c>
+      <c r="M29" t="n">
+        <v>536439940.0690677</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2072065587.493748</v>
+      </c>
+      <c r="O29" t="n">
+        <v>3367996071.975929</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-41151128064.15039</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-630251158282.3169</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-6363475228247.764</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-58652884884246.91</v>
       </c>
     </row>
     <row r="30">
@@ -670,7 +2149,58 @@
         <v>0.2014041362207585</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1598295481381244</v>
+        <v>1.897763137190708</v>
+      </c>
+      <c r="C30" t="n">
+        <v>23.25876084933931</v>
+      </c>
+      <c r="D30" t="n">
+        <v>264.6379446083428</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3341.704041560548</v>
+      </c>
+      <c r="F30" t="n">
+        <v>52516.24076176962</v>
+      </c>
+      <c r="G30" t="n">
+        <v>788468.7969348514</v>
+      </c>
+      <c r="H30" t="n">
+        <v>11697231.03503951</v>
+      </c>
+      <c r="I30" t="n">
+        <v>181753657.2715935</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2805038828.059604</v>
+      </c>
+      <c r="K30" t="n">
+        <v>41809974653.12307</v>
+      </c>
+      <c r="L30" t="n">
+        <v>596418702652.0369</v>
+      </c>
+      <c r="M30" t="n">
+        <v>8082293059564.043</v>
+      </c>
+      <c r="N30" t="n">
+        <v>104902999653803.2</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1343324172353020</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.798283431848894e+16</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.645107420419876e+17</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4.16584967436844e+18</v>
+      </c>
+      <c r="S30" t="n">
+        <v>6.564753305973983e+19</v>
       </c>
     </row>
     <row r="31">
@@ -678,7 +2208,58 @@
         <v>0.02481128159909759</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03514478001957373</v>
+        <v>1.41473080182307</v>
+      </c>
+      <c r="C31" t="n">
+        <v>18.9051657831264</v>
+      </c>
+      <c r="D31" t="n">
+        <v>250.7820479110709</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3456.510440971481</v>
+      </c>
+      <c r="F31" t="n">
+        <v>53983.45602345367</v>
+      </c>
+      <c r="G31" t="n">
+        <v>841793.0112575189</v>
+      </c>
+      <c r="H31" t="n">
+        <v>13931727.33752267</v>
+      </c>
+      <c r="I31" t="n">
+        <v>239064022.0561919</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4128471333.858236</v>
+      </c>
+      <c r="K31" t="n">
+        <v>70501862842.86996</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1171590181077.253</v>
+      </c>
+      <c r="M31" t="n">
+        <v>18872553690162.61</v>
+      </c>
+      <c r="N31" t="n">
+        <v>300701518599062.7</v>
+      </c>
+      <c r="O31" t="n">
+        <v>4833442740322026</v>
+      </c>
+      <c r="P31" t="n">
+        <v>7.866050253430499e+16</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.295072911676421e+18</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.144413725840309e+19</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.548177120784016e+20</v>
       </c>
     </row>
     <row r="32">
@@ -686,7 +2267,58 @@
         <v>0.1737050911834538</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1714746687135577</v>
+        <v>2.793346941765459</v>
+      </c>
+      <c r="C32" t="n">
+        <v>53.54777851005441</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1056.825057012084</v>
+      </c>
+      <c r="E32" t="n">
+        <v>19915.27004111929</v>
+      </c>
+      <c r="F32" t="n">
+        <v>358965.5021440441</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6573134.167962603</v>
+      </c>
+      <c r="H32" t="n">
+        <v>118698712.1447489</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2408419592.825126</v>
+      </c>
+      <c r="J32" t="n">
+        <v>50314662416.76688</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1028219627665.403</v>
+      </c>
+      <c r="L32" t="n">
+        <v>20574356361382.66</v>
+      </c>
+      <c r="M32" t="n">
+        <v>402820629778926.8</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7743674010249029</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.503338715884456e+17</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.082036896281665e+18</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>6.831305278950929e+19</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.588329401274996e+21</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.69395057380234e+22</v>
       </c>
     </row>
     <row r="33">
@@ -694,7 +2326,58 @@
         <v>0.1182487954320816</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1259171087411987</v>
+        <v>2.543309120831319</v>
+      </c>
+      <c r="C33" t="n">
+        <v>52.21884417966141</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1023.924367049162</v>
+      </c>
+      <c r="E33" t="n">
+        <v>19532.77063280723</v>
+      </c>
+      <c r="F33" t="n">
+        <v>371513.3598918583</v>
+      </c>
+      <c r="G33" t="n">
+        <v>7461653.222529752</v>
+      </c>
+      <c r="H33" t="n">
+        <v>144861357.9251875</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3189063831.451113</v>
+      </c>
+      <c r="J33" t="n">
+        <v>70157837351.14381</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1430827205921.525</v>
+      </c>
+      <c r="L33" t="n">
+        <v>25921316927245.06</v>
+      </c>
+      <c r="M33" t="n">
+        <v>369106301783244.1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2135045118195918</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-1.007311767559246e+17</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-5.141478334856752e+18</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-1.59870611123206e+20</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-4.295906414975808e+21</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-1.154922004658519e+23</v>
       </c>
     </row>
     <row r="34">
@@ -702,7 +2385,58 @@
         <v>0.08883989179839069</v>
       </c>
       <c r="B34" t="n">
-        <v>0.04951101369534622</v>
+        <v>2.192509780750981</v>
+      </c>
+      <c r="C34" t="n">
+        <v>42.36169490342914</v>
+      </c>
+      <c r="D34" t="n">
+        <v>776.2979402844408</v>
+      </c>
+      <c r="E34" t="n">
+        <v>14323.57416808725</v>
+      </c>
+      <c r="F34" t="n">
+        <v>284254.5953460731</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5702940.147176964</v>
+      </c>
+      <c r="H34" t="n">
+        <v>134443430.3647295</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3463629031.268557</v>
+      </c>
+      <c r="J34" t="n">
+        <v>90111058829.35889</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2290704691755.74</v>
+      </c>
+      <c r="L34" t="n">
+        <v>55760262946487.06</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1295624888897890</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.953344124444294e+16</v>
+      </c>
+      <c r="O34" t="n">
+        <v>6.769301439474472e+17</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.559875552116992e+19</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3.609880724987609e+20</v>
+      </c>
+      <c r="R34" t="n">
+        <v>8.370185610933903e+21</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.939101155111027e+23</v>
       </c>
     </row>
     <row r="35">
@@ -710,7 +2444,58 @@
         <v>0.4018459552159545</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2577559197610668</v>
+        <v>53.40427035054601</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8671.564445688397</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1403171.316651409</v>
+      </c>
+      <c r="E35" t="n">
+        <v>225053973.3460365</v>
+      </c>
+      <c r="F35" t="n">
+        <v>36047120751.5734</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5362681416586.097</v>
+      </c>
+      <c r="H35" t="n">
+        <v>662724410124259.5</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7.792536294053078e+16</v>
+      </c>
+      <c r="J35" t="n">
+        <v>8.768583614420977e+18</v>
+      </c>
+      <c r="K35" t="n">
+        <v>7.427048851569662e+20</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.189496302929788e+22</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-8.120346719154531e+24</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-2.805291814745908e+27</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-6.814534003553148e+29</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-1.360475714487932e+32</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-2.382086061943602e+34</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-3.914761293843181e+36</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-6.445972032127276e+38</v>
       </c>
     </row>
     <row r="36">
@@ -718,7 +2503,58 @@
         <v>0.260730527606143</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1247549647763282</v>
+        <v>33.68524902692477</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4630.715662571062</v>
+      </c>
+      <c r="D36" t="n">
+        <v>613437.0122940299</v>
+      </c>
+      <c r="E36" t="n">
+        <v>83081050.11883867</v>
+      </c>
+      <c r="F36" t="n">
+        <v>10834418946.74937</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1416379939485.343</v>
+      </c>
+      <c r="H36" t="n">
+        <v>151110139494444.2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.431560140163061e+16</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.102744308948376e+18</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.478994483005723e+19</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-1.767989319937629e+22</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-5.058394189674877e+24</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-1.051379844243863e+27</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-1.92179919287411e+29</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-3.141922336989665e+31</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-4.701875654399394e+33</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-6.724525872868363e+35</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-9.634160706486826e+37</v>
       </c>
     </row>
     <row r="37">
@@ -726,7 +2562,58 @@
         <v>0.06585361720161836</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.01132238630589366</v>
+        <v>4.117970642341196</v>
+      </c>
+      <c r="C37" t="n">
+        <v>758.5829514718397</v>
+      </c>
+      <c r="D37" t="n">
+        <v>102217.25741344</v>
+      </c>
+      <c r="E37" t="n">
+        <v>12911031.28339462</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1546971704.794643</v>
+      </c>
+      <c r="G37" t="n">
+        <v>186627993447.7153</v>
+      </c>
+      <c r="H37" t="n">
+        <v>17137593837116.07</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1086179318104130</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-851728115959268</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-1.492256902993756e+19</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-3.282223131040455e+21</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-5.26678936643375e+23</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-7.527574855507212e+25</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-1.012726559885762e+28</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-1.271974580077058e+30</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-1.503674548952294e+32</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-1.722095722020296e+34</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-1.975602127578502e+36</v>
       </c>
     </row>
     <row r="38">
@@ -734,7 +2621,58 @@
         <v>0.3322606920892029</v>
       </c>
       <c r="B38" t="n">
-        <v>0.273073446524114</v>
+        <v>56.04440990353043</v>
+      </c>
+      <c r="C38" t="n">
+        <v>9445.766435335481</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1570574.410019957</v>
+      </c>
+      <c r="E38" t="n">
+        <v>253465563.6708325</v>
+      </c>
+      <c r="F38" t="n">
+        <v>39614154374.50546</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5709899573005.404</v>
+      </c>
+      <c r="H38" t="n">
+        <v>808166561287382</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.197560720264446e+17</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.749269218913868e+19</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.46792314952889e+21</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.338952318370049e+23</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4.284386727872835e+25</v>
+      </c>
+      <c r="N38" t="n">
+        <v>5.10689609310011e+27</v>
+      </c>
+      <c r="O38" t="n">
+        <v>5.733102172484034e+29</v>
+      </c>
+      <c r="P38" t="n">
+        <v>6.698150062975737e+31</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.493800216446714e+33</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.592034011934059e+36</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.665949787828596e+38</v>
       </c>
     </row>
     <row r="39">
@@ -742,7 +2680,58 @@
         <v>-0.07060256033685686</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.1582765077064184</v>
+        <v>-22.72282369475231</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-5724.949167003858</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-1495330.223227332</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-405521907.1701106</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-125365393795.8912</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-38085896427375.44</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-1.124917923548949e+16</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-3.233622360847998e+18</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-8.983922012042921e+20</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-2.404678903141473e+23</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-6.240144758409521e+25</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-1.584912357499832e+28</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-3.980728619466446e+30</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-9.928308321492064e+32</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-2.462256522832959e+35</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-6.085965421527968e+37</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-1.503032688239698e+40</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-3.714905719192687e+42</v>
       </c>
     </row>
     <row r="40">
@@ -750,7 +2739,58 @@
         <v>0.1787789290427507</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1724357899974115</v>
+        <v>28.9402766342372</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4843.949396110857</v>
+      </c>
+      <c r="D40" t="n">
+        <v>750595.8929862281</v>
+      </c>
+      <c r="E40" t="n">
+        <v>85277094.21016811</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5947788339.236712</v>
+      </c>
+      <c r="G40" t="n">
+        <v>654205924919.3335</v>
+      </c>
+      <c r="H40" t="n">
+        <v>54653168604475.57</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3422940629722040</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-6.200527233091666e+16</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-8.023804443287313e+19</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-1.896546471234277e+22</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-3.31258537851434e+24</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-5.209002290454511e+26</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-7.887739318210503e+28</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-1.134743220643883e+31</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-1.555825913921181e+33</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-2.079845257700312e+35</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-2.784078618484944e+37</v>
       </c>
     </row>
     <row r="41">
@@ -758,7 +2798,58 @@
         <v>-0.1169184665546673</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.173198470314575</v>
+        <v>-9.785986578857077</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-526.4111055597145</v>
+      </c>
+      <c r="D41" t="n">
+        <v>58689.67543101442</v>
+      </c>
+      <c r="E41" t="n">
+        <v>30704933.60430272</v>
+      </c>
+      <c r="F41" t="n">
+        <v>10546872184.57295</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2543938758967.128</v>
+      </c>
+      <c r="H41" t="n">
+        <v>488644018004398.2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>7.417585607673941e+16</v>
+      </c>
+      <c r="J41" t="n">
+        <v>9.883834139408554e+18</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.228122644106045e+21</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.352294598943106e+23</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.187954265959149e+25</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3.304726614769564e+26</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-1.849759522164364e+29</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-5.584810282950761e+31</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-1.048940009740169e+34</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-1.646777207130523e+36</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-2.577686721791434e+38</v>
       </c>
     </row>
     <row r="42">
@@ -766,7 +2857,58 @@
         <v>0.2418133223432772</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2173282928449247</v>
+        <v>27.32642174678685</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2906.89389218522</v>
+      </c>
+      <c r="D42" t="n">
+        <v>333606.1053174009</v>
+      </c>
+      <c r="E42" t="n">
+        <v>39477281.91254158</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4589836528.998234</v>
+      </c>
+      <c r="G42" t="n">
+        <v>452480389598.3104</v>
+      </c>
+      <c r="H42" t="n">
+        <v>41794218473373.61</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4104666663270162</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.197412085358541e+17</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.106149964963583e+19</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3.595239638947608e+21</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2.425712374312427e+23</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6.287618001265474e+24</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-1.437493289404226e+27</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-3.221841291906708e+29</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-4.251537349873947e+31</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-4.640839835743746e+33</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-5.059642225791485e+35</v>
       </c>
     </row>
     <row r="43">
@@ -774,7 +2916,58 @@
         <v>0.1916137478952961</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1530728756710596</v>
+        <v>42.25970761072384</v>
+      </c>
+      <c r="C43" t="n">
+        <v>9456.383677839072</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2059544.205087907</v>
+      </c>
+      <c r="E43" t="n">
+        <v>443366938.9918673</v>
+      </c>
+      <c r="F43" t="n">
+        <v>94893348054.80183</v>
+      </c>
+      <c r="G43" t="n">
+        <v>19799500147508.63</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3914028215598594</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7.445314926122838e+17</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.366541287208821e+20</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.390926871790703e+22</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3.865395231843927e+24</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5.440993790200449e+26</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5.840903926943301e+28</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2.64269685340053e+30</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-6.611919635861707e+32</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-2.146877578747429e+35</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-3.994518734857217e+37</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-7.423078748872663e+39</v>
       </c>
     </row>
     <row r="44">
@@ -782,7 +2975,58 @@
         <v>-0.1213111496745746</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.09565828784753705</v>
+        <v>-23.09761679682755</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-4783.314009425771</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-973117.4115689277</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-192710505.3950109</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-37687668851.09906</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-7169705128727.369</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-1427236531119792</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-2.71771207816795e+17</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-5.004855473487104e+19</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-9.241462556955285e+21</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-1.808387399413525e+24</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-3.801044831284454e+26</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-8.049362513332598e+28</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-1.68178695900234e+31</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-3.411607994829718e+33</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-6.709373444593161e+35</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-1.299345268397565e+38</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-2.520759981135371e+40</v>
       </c>
     </row>
     <row r="45">
@@ -790,7 +3034,58 @@
         <v>-0.105815105790153</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.1032814672089365</v>
+        <v>-3.208489754281432</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-498.8260755935744</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-59683.10087964554</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-5575019.895620836</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-625718621.2099425</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-93060713383.84024</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-15716319925880.08</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-2372080738798838</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-3.200929511171181e+17</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-4.142503073171347e+19</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-5.287134064190968e+21</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-6.721044801687769e+23</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-8.407267739425915e+25</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-1.025893692777373e+28</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-1.20820882430437e+30</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-1.374946181714088e+32</v>
+      </c>
+      <c r="R45" t="n">
+        <v>-1.536647554579441e+34</v>
+      </c>
+      <c r="S45" t="n">
+        <v>-1.720029014587421e+36</v>
       </c>
     </row>
     <row r="46">
@@ -798,7 +3093,58 @@
         <v>-0.1894810015761276</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1804892429802131</v>
+        <v>-5.374535882256162</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-191.4953664214205</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-6335.652021874612</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-195001.4577279319</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-5768749.465434389</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-200281656.8376997</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-5485778632.10309</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-124900673028.0187</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1780791155790.978</v>
+      </c>
+      <c r="K46" t="n">
+        <v>23634144639754.78</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3061405188856996</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.489767974215212e+17</v>
+      </c>
+      <c r="N46" t="n">
+        <v>6.024194065318826e+18</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2.356447423897262e+20</v>
+      </c>
+      <c r="P46" t="n">
+        <v>8.854031204174314e+21</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3.218413813978971e+23</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.151595143571077e+25</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4.112742330368481e+26</v>
       </c>
     </row>
     <row r="47">
@@ -806,7 +3152,58 @@
         <v>-0.1889844693614678</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.181158037485951</v>
+        <v>-6.861205788973442</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-296.1703647147913</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-11896.44419519257</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-446017.3433719757</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-16104373.38587644</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-677212277.9934564</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-23061026880.09525</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-675164012349.7457</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-14579540882296.33</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-62341475109648.75</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.453130178880031e+16</v>
+      </c>
+      <c r="M47" t="n">
+        <v>9.932736266401563e+17</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.055484037569988e+19</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2.449954497720014e+21</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.125714993337253e+23</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4.960827908729766e+24</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2.143930065794283e+26</v>
+      </c>
+      <c r="S47" t="n">
+        <v>9.243328661871006e+27</v>
       </c>
     </row>
     <row r="48">
@@ -814,7 +3211,58 @@
         <v>-0.2285643802945282</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.207368933605906</v>
+        <v>-7.058914556343865</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-293.7917112159898</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-11392.81294657126</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-417109.2995358519</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-14877504.65646767</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-608288549.7522405</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-20513022843.3204</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-610520578047.5034</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-14355991252545.86</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-170204279378728.1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>5823453916425396</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5.200262356438156e+17</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.771921029722578e+19</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.369174729095308e+21</v>
+      </c>
+      <c r="P48" t="n">
+        <v>6.297159632969544e+22</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.748057113423408e+24</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.170559429617457e+26</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4.967379003642719e+27</v>
       </c>
     </row>
     <row r="49">
@@ -822,7 +3270,58 @@
         <v>-0.2211384405771495</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.205019093253885</v>
+        <v>-9.108444484512416</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-453.9297116211734</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-21133.43411947297</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-942161.4621632196</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-41298662.68565965</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-2036570330.365937</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-84402971404.18605</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-3142447453391.723</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-97174964079666.09</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-2050261212129573</v>
+      </c>
+      <c r="L49" t="n">
+        <v>555259737904512</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2.745743231417784e+18</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.109957767689212e+20</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.372112990857138e+22</v>
+      </c>
+      <c r="P49" t="n">
+        <v>7.942380659561155e+23</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4.26202924137023e+25</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.211955242195297e+27</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.142122688962139e+29</v>
       </c>
     </row>
     <row r="50">
@@ -830,7 +3329,58 @@
         <v>-0.1542242326987149</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.1444851799490377</v>
+        <v>-14.11641010005841</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-1230.130233569283</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-99719.85587286472</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-7810495.885982088</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-602851768.4764706</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-49334265956.69196</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-3470509662367.097</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-222454007862746</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-1.258190867673588e+16</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-5.990757284230336e+17</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-2.308199318068713e+19</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-7.535040068529171e+20</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-1.002045608872927e+22</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2.756221607455877e+24</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4.195062454203374e+26</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4.226396844022052e+28</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3.778370459018126e+30</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3.331955768044496e+32</v>
       </c>
     </row>
     <row r="51">
@@ -838,7 +3388,58 @@
         <v>-0.2132275859158974</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.2256221463837091</v>
+        <v>-8.623182915087193</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-401.1466254771943</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-17650.54491393154</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-732792.3191025432</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-29582450.2453286</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1371814397.473504</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-53262966431.6683</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-1855271411234.219</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-52927356166086.2</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-957961863711843.5</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8475610283928560</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.755418802838269e+18</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.183415934873881e+20</v>
+      </c>
+      <c r="O51" t="n">
+        <v>7.038046270358185e+21</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3.801207407867527e+23</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.92328120973254e+25</v>
+      </c>
+      <c r="R51" t="n">
+        <v>9.445354171749819e+26</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4.611776789132814e+28</v>
       </c>
     </row>
     <row r="52">
@@ -846,7 +3447,58 @@
         <v>-0.2132275859158974</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.2256221463837091</v>
+        <v>-8.623182915087193</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-401.1466254771943</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-17650.54491393154</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-732792.3191025432</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-29582450.2453286</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-1371814397.473504</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-53262966431.6683</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-1855271411234.219</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-52927356166086.2</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-957961863711843.5</v>
+      </c>
+      <c r="L52" t="n">
+        <v>8475610283928560</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.755418802838269e+18</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.183415934873881e+20</v>
+      </c>
+      <c r="O52" t="n">
+        <v>7.038046270358185e+21</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3.801207407867527e+23</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.92328120973254e+25</v>
+      </c>
+      <c r="R52" t="n">
+        <v>9.445354171749819e+26</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4.611776789132814e+28</v>
       </c>
     </row>
     <row r="53">
@@ -854,7 +3506,58 @@
         <v>-0.2071471597225397</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.191734616525058</v>
+        <v>-4.92317245779648</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-175.6043114949013</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-5845.758376627708</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-176131.0479909193</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-4974698.555398087</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-170323587.1695155</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-4603100498.479815</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-104522163173.216</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1579410335116.4</v>
+      </c>
+      <c r="K53" t="n">
+        <v>10377672475663.44</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1969112797664652</v>
+      </c>
+      <c r="M53" t="n">
+        <v>9.580615532798342e+16</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3.783535332255342e+18</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.446507039228809e+20</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5.309737576285688e+21</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.884616740675926e+23</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6.583572951576044e+24</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2.29490096715087e+26</v>
       </c>
     </row>
     <row r="54">
@@ -862,7 +3565,58 @@
         <v>-0.207856041027209</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.2038544479223625</v>
+        <v>-14.07519394995715</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-1004.558499964155</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-66650.79327554539</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-4165847.249801886</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-252605988.0183876</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-17200318517.59398</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-1016439071890.878</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-55722923489938.42</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-2707812331015321</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-1.116994795876705e+17</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-3.787480075456476e+18</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-1.103325950734883e+20</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-1.53444189563201e+21</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2.569952789169381e+23</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3.497736645075978e+25</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3.061881395880476e+27</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2.367005832842421e+29</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.795464219547238e+31</v>
       </c>
     </row>
     <row r="55">
@@ -870,7 +3624,58 @@
         <v>-0.1710765624915974</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.1552346643470963</v>
+        <v>-4.9904212919319</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-205.4695127142588</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-7693.173635833066</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-277201.9063284765</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-10006416.66216022</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-407340234.8163111</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-13077967146.87364</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-353061825156.3228</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-6577944099766.516</v>
+      </c>
+      <c r="K55" t="n">
+        <v>17661164402958.62</v>
+      </c>
+      <c r="L55" t="n">
+        <v>8862277906354568</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5.216652620895055e+17</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.429153926649702e+19</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.088385428663064e+21</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4.657468631647712e+22</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.92011431939767e+24</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7.778995122320712e+25</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3.144892093570313e+27</v>
       </c>
     </row>
     <row r="56">
@@ -878,7 +3683,58 @@
         <v>-0.150051687702363</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.1457404176251496</v>
+        <v>-7.985739630951793</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-403.128137564254</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-18676.08662228304</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-841887.7252729982</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-37931202.52570441</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-1824950975.677688</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-73338780501.96323</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-2605079940726.925</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-73689350562560.03</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-1129214828514766</v>
+      </c>
+      <c r="L56" t="n">
+        <v>3.516045897376038e+16</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4.164377340559992e+18</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.731538467780062e+20</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.624103841957097e+22</v>
+      </c>
+      <c r="P56" t="n">
+        <v>8.888800578412654e+23</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4.586327534098938e+25</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.303753302211738e+27</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.153832961091837e+29</v>
       </c>
     </row>
     <row r="57">
@@ -886,7 +3742,58 @@
         <v>-0.1976795480467335</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.1578538221516333</v>
+        <v>-7.425461989918876</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-319.366039093933</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-12755.08593269207</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-478588.7377057425</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-17399411.50348265</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-705615533.0942347</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-23230803904.00003</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-658354971156.0607</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-13493692912350.02</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-7108784276638</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.745973080634766e+16</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.158288659268568e+18</v>
+      </c>
+      <c r="N57" t="n">
+        <v>5.926463450551903e+19</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2.859982440455433e+21</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.299237245371923e+23</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5.630355271027053e+24</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.388083629702599e+26</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.012636552387064e+28</v>
       </c>
     </row>
     <row r="58">
@@ -894,7 +3801,58 @@
         <v>-0.18036077218508</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.2109048882063121</v>
+        <v>-9.019228725555983</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-406.2012032407763</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-17630.25346711656</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-719878.4806746878</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-28128663.05983108</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1167448146.485125</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-41159651189.93254</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1311209527474.151</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-34249639772902.91</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-516647170431351</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.185399862394657e+16</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.499991489954856e+18</v>
+      </c>
+      <c r="N58" t="n">
+        <v>9.544263715807627e+19</v>
+      </c>
+      <c r="O58" t="n">
+        <v>5.262570048286328e+21</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2.61270829049449e+23</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.207397545455062e+25</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5.403581369091706e+26</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2.416280759130719e+28</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +3860,58 @@
         <v>-0.221485526579741</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.2353069304415698</v>
+        <v>-9.570017402040255</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-459.6044964754391</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-21020.77510424978</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-919954.3414110879</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-39574263.99439526</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-1816563374.350529</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-71762858185.28195</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-2611495881782.144</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-81553978724814.19</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-1908526359414118</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-1.662531324359226e+16</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.41942844178829e+18</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.374774477117355e+20</v>
+      </c>
+      <c r="O59" t="n">
+        <v>9.339975122677065e+21</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5.330249529407875e+23</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.748602038692361e+25</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.357461868426944e+27</v>
+      </c>
+      <c r="S59" t="n">
+        <v>6.680833618995776e+28</v>
       </c>
     </row>
     <row r="60">
@@ -910,7 +3919,58 @@
         <v>-0.2094013024649638</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.2352997651909498</v>
+        <v>-14.86179400894295</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-1015.186259828209</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-66283.8794266581</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-4225995.006770669</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-268310186.2362922</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-17689252574.52631</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-1027910554257.152</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-56432931058980.53</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-2756637522247171</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-1.132757735409244e+17</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-3.462652275819059e+18</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-3.549763211623622e+19</v>
+      </c>
+      <c r="N60" t="n">
+        <v>7.474000443457524e+21</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.078066569023275e+24</v>
+      </c>
+      <c r="P60" t="n">
+        <v>9.896566857250151e+25</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>7.569509909280624e+27</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5.399038357429328e+29</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3.840591841998921e+31</v>
       </c>
     </row>
     <row r="61">
@@ -918,7 +3978,58 @@
         <v>-0.2655496591401728</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.2272365813879831</v>
+        <v>-41.00316736600604</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-8627.916339898366</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-1804067.477338775</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-373574320.8400136</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-76655632929.3822</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-15381767957782.42</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-2728288434303217</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-4.564104206062831e+17</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-7.009197583082614e+19</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-9.779665054901526e+21</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-1.289085106901489e+24</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-1.801379319717957e+26</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-2.655829255079966e+28</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-3.655136021746969e+30</v>
+      </c>
+      <c r="P61" t="n">
+        <v>-5.102987977686912e+32</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>-8.154326148440729e+34</v>
+      </c>
+      <c r="R61" t="n">
+        <v>-1.46840844844238e+37</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-2.621784197982108e+39</v>
       </c>
     </row>
     <row r="62">
@@ -926,7 +4037,58 @@
         <v>-0.1642320694870018</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.1064504400080818</v>
+        <v>-2.480639516765421</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-100.7074769912786</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-3391.678997808403</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-112649.3980184989</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-3894148.606408325</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-142518014.1338876</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-3846907469.03933</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-78970399858.8909</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-593610855347.4658</v>
+      </c>
+      <c r="K62" t="n">
+        <v>49260891556228.23</v>
+      </c>
+      <c r="L62" t="n">
+        <v>3536623695311122</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.585913466830619e+17</v>
+      </c>
+      <c r="N62" t="n">
+        <v>6.219404978585732e+18</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2.359646973914817e+20</v>
+      </c>
+      <c r="P62" t="n">
+        <v>8.592418013126696e+21</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3.022998623200647e+23</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.046828850844595e+25</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3.625523706884406e+26</v>
       </c>
     </row>
     <row r="63">
@@ -934,7 +4096,58 @@
         <v>-0.3436512458246397</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.3869883425053283</v>
+        <v>-16.20673254201114</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-804.162652743142</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-39156.34638737435</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-1873656.616487928</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-90027014.96616614</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-4633799699.918901</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-217944598210.8779</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-10159914410263.66</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-443541918523664.4</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-1.75890513137804e+16</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-6.269055459682849e+17</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-1.984176826725718e+19</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-4.422220533273201e+20</v>
+      </c>
+      <c r="O63" t="n">
+        <v>6.776285349030117e+21</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1.603337788699086e+24</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.285600844108354e+26</v>
+      </c>
+      <c r="R63" t="n">
+        <v>8.471737925582951e+27</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5.396956348855819e+29</v>
       </c>
     </row>
     <row r="64">
@@ -942,7 +4155,58 @@
         <v>-0.2723036396626605</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.2638794487875365</v>
+        <v>-8.196352747070762</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-334.9469282854733</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-13032.96239809632</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-466796.4633142911</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-15810041.82855252</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-639517500.9559581</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-21454824630.72487</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-643327510866.4297</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-15696247418125.66</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-216588703411588.2</v>
+      </c>
+      <c r="L64" t="n">
+        <v>4972335380345760</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5.56022943720165e+17</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3.222582435491341e+19</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.64979977123162e+21</v>
+      </c>
+      <c r="P64" t="n">
+        <v>7.659959983444875e+22</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3.322388318118111e+24</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.39798201380148e+26</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5.87363850977352e+27</v>
       </c>
     </row>
     <row r="65">
@@ -950,7 +4214,58 @@
         <v>-0.1936561084382792</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.2275422745700788</v>
+        <v>-20.94622735197113</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1758.165941546098</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-139440.8011625803</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-10561311.73854323</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-777212245.3693167</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-60976901869.02808</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-4359071074659.735</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-301279764232602.1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-1.892336039532958e+16</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-1.06592278601686e+18</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-5.356692109037868e+19</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-2.447019701872609e+21</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-8.293282005506143e+22</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.403949478194698e+24</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5.597824957719345e+26</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>6.307565971477735e+28</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5.747839300178644e+30</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5.181531899297579e+32</v>
       </c>
     </row>
     <row r="66">
@@ -958,7 +4273,58 @@
         <v>-0.1196590449759944</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.09956497374286856</v>
+        <v>-5.526171360228846</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-294.4971682211077</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-14019.59627351033</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-707266.6553329049</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-37857237.8364934</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-1909647181.855204</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-79322223780.88583</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-2893334415789.144</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-85009165946522.52</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-1408080715697271</v>
+      </c>
+      <c r="L66" t="n">
+        <v>4.266160048434227e+16</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5.786030468769619e+18</v>
+      </c>
+      <c r="N66" t="n">
+        <v>4.119465996708331e+20</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2.551668527339079e+22</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.422217831851774e+24</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>7.367570961967482e+25</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3.694621458563169e+27</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.852553208164357e+29</v>
       </c>
     </row>
     <row r="67">
@@ -966,7 +4332,58 @@
         <v>-0.0589316749074649</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.0601353920044297</v>
+        <v>-7.678720909689278</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-397.4140244271214</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-18715.9210115208</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-868195.3238550276</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-40308924.60979955</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-1820339211.142259</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-71179468871.9054</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-2505159112959.756</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-73201544394317.17</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-1434959329700006</v>
+      </c>
+      <c r="L67" t="n">
+        <v>7745563191919456</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2.666769649726272e+18</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2.01053627323933e+20</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.236772175897459e+22</v>
+      </c>
+      <c r="P67" t="n">
+        <v>6.6830322613493e+23</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3.319244832192833e+25</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.588351633087204e+27</v>
+      </c>
+      <c r="S67" t="n">
+        <v>7.599916497129709e+28</v>
       </c>
     </row>
   </sheetData>
